--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
@@ -496,28 +496,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>380.633941317371</v>
+        <v>305.958941322087</v>
       </c>
       <c r="I2" t="n">
-        <v>321.252929700146</v>
+        <v>219.986816410931</v>
       </c>
       <c r="J2" t="n">
-        <v>285.469947280774</v>
+        <v>172.032128026305</v>
       </c>
       <c r="K2" t="n">
-        <v>260.868063378937</v>
+        <v>143.781143146268</v>
       </c>
       <c r="L2" t="n">
-        <v>243.327424603391</v>
+        <v>125.127863454262</v>
       </c>
       <c r="M2" t="n">
-        <v>230.515949118376</v>
+        <v>111.924950718939</v>
       </c>
       <c r="N2" t="n">
-        <v>220.908326779107</v>
+        <v>102.155619670662</v>
       </c>
       <c r="O2" t="n">
-        <v>213.507079985402</v>
+        <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
@@ -543,28 +543,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>370.268314997684</v>
+        <v>320.230815000711</v>
       </c>
       <c r="I3" t="n">
-        <v>302.709541664996</v>
+        <v>234.886769975759</v>
       </c>
       <c r="J3" t="n">
-        <v>260.336206438901</v>
+        <v>184.516741111159</v>
       </c>
       <c r="K3" t="n">
-        <v>231.522003931267</v>
+        <v>153.477532364993</v>
       </c>
       <c r="L3" t="n">
-        <v>211.442562841871</v>
+        <v>132.784947783905</v>
       </c>
       <c r="M3" t="n">
-        <v>197.08414020971</v>
+        <v>118.233936086707</v>
       </c>
       <c r="N3" t="n">
-        <v>186.486439487899</v>
+        <v>107.566109931883</v>
       </c>
       <c r="O3" t="n">
-        <v>178.414487830406</v>
+        <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
@@ -590,28 +590,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>355.847103355036</v>
+        <v>330.83460335654</v>
       </c>
       <c r="I4" t="n">
-        <v>276.64457628707</v>
+        <v>242.607747121165</v>
       </c>
       <c r="J4" t="n">
-        <v>226.362807319808</v>
+        <v>188.575514578095</v>
       </c>
       <c r="K4" t="n">
-        <v>193.296123418659</v>
+        <v>154.598681934824</v>
       </c>
       <c r="L4" t="n">
-        <v>170.944975776293</v>
+        <v>132.033821271404</v>
       </c>
       <c r="M4" t="n">
-        <v>155.30882968239</v>
+        <v>116.341275831496</v>
       </c>
       <c r="N4" t="n">
-        <v>143.941314505457</v>
+        <v>104.956497497692</v>
       </c>
       <c r="O4" t="n">
-        <v>135.37479194669</v>
+        <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>350.841762966168</v>
+        <v>276.166762970885</v>
       </c>
       <c r="I5" t="n">
-        <v>265.946736437144</v>
+        <v>161.41899700805</v>
       </c>
       <c r="J5" t="n">
-        <v>216.582947965064</v>
+        <v>100.959508575313</v>
       </c>
       <c r="K5" t="n">
-        <v>185.171889754022</v>
+        <v>66.9821020354688</v>
       </c>
       <c r="L5" t="n">
-        <v>164.049970000607</v>
+        <v>45.2686976209134</v>
       </c>
       <c r="M5" t="n">
-        <v>149.190830605139</v>
+        <v>30.260054230837</v>
       </c>
       <c r="N5" t="n">
-        <v>138.321446919402</v>
+        <v>19.3476709425518</v>
       </c>
       <c r="O5" t="n">
-        <v>130.09480563981</v>
+        <v>11.1067743893329</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>343.224346281674</v>
+        <v>293.1868462847</v>
       </c>
       <c r="I6" t="n">
-        <v>251.721626006519</v>
+        <v>182.016579273066</v>
       </c>
       <c r="J6" t="n">
-        <v>197.273842489868</v>
+        <v>120.254267578413</v>
       </c>
       <c r="K6" t="n">
-        <v>162.848119894713</v>
+        <v>84.2739208470969</v>
       </c>
       <c r="L6" t="n">
-        <v>140.087416387134</v>
+        <v>61.1937751432458</v>
       </c>
       <c r="M6" t="n">
-        <v>124.344709553092</v>
+        <v>45.377526084738</v>
       </c>
       <c r="N6" t="n">
-        <v>112.974769255627</v>
+        <v>33.9876014729822</v>
       </c>
       <c r="O6" t="n">
-        <v>104.442524955083</v>
+        <v>25.4488409393044</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>332.668573604037</v>
+        <v>307.656073605541</v>
       </c>
       <c r="I7" t="n">
-        <v>232.084556589221</v>
+        <v>197.36250145535</v>
       </c>
       <c r="J7" t="n">
-        <v>172.076569558569</v>
+        <v>133.891524453198</v>
       </c>
       <c r="K7" t="n">
-        <v>135.023467817805</v>
+        <v>96.1812803586853</v>
       </c>
       <c r="L7" t="n">
-        <v>111.042666608527</v>
+        <v>72.0802889403447</v>
       </c>
       <c r="M7" t="n">
-        <v>94.6947399052476</v>
+        <v>55.706710379565</v>
       </c>
       <c r="N7" t="n">
-        <v>82.9907881312212</v>
+        <v>43.9959144648564</v>
       </c>
       <c r="O7" t="n">
-        <v>74.2532758820862</v>
+        <v>35.2560581493574</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>287.050807899019</v>
+        <v>212.375807903736</v>
       </c>
       <c r="I8" t="n">
-        <v>179.767919176482</v>
+        <v>77.5162589672474</v>
       </c>
       <c r="J8" t="n">
-        <v>100.050397638173</v>
+        <v>-14.045689195886</v>
       </c>
       <c r="K8" t="n">
-        <v>53.3087599336789</v>
+        <v>-63.8454676587368</v>
       </c>
       <c r="L8" t="n">
-        <v>25.7601678203977</v>
+        <v>-92.347964039085</v>
       </c>
       <c r="M8" t="n">
-        <v>8.0567245171185</v>
+        <v>-110.433937714629</v>
       </c>
       <c r="N8" t="n">
-        <v>-4.19834346635809</v>
+        <v>-122.871388609178</v>
       </c>
       <c r="O8" t="n">
-        <v>-13.1683412913344</v>
+        <v>-131.938972723872</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>284.309068664709</v>
+        <v>234.271568667736</v>
       </c>
       <c r="I9" t="n">
-        <v>175.453346960936</v>
+        <v>107.988579265978</v>
       </c>
       <c r="J9" t="n">
-        <v>94.2252136187108</v>
+        <v>18.5460497754398</v>
       </c>
       <c r="K9" t="n">
-        <v>46.2838260937278</v>
+        <v>-31.5713942997207</v>
       </c>
       <c r="L9" t="n">
-        <v>17.8339156031122</v>
+        <v>-60.6615492677588</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.533947600645998</v>
+        <v>-79.2647430206882</v>
       </c>
       <c r="N9" t="n">
-        <v>-13.2794063575601</v>
+        <v>-92.1146861106535</v>
       </c>
       <c r="O9" t="n">
-        <v>-22.6152131091167</v>
+        <v>-101.504070488222</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>280.44365730347</v>
+        <v>255.431157304974</v>
       </c>
       <c r="I10" t="n">
-        <v>169.023528395556</v>
+        <v>135.813055843614</v>
       </c>
       <c r="J10" t="n">
-        <v>85.443527744122</v>
+        <v>48.0748494497129</v>
       </c>
       <c r="K10" t="n">
-        <v>35.8750588139051</v>
+        <v>-2.59544164514419</v>
       </c>
       <c r="L10" t="n">
-        <v>6.37218972419477</v>
+        <v>-32.3977568239551</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.6692983807168</v>
+        <v>-51.5410125284338</v>
       </c>
       <c r="N10" t="n">
-        <v>-25.8515364658283</v>
+        <v>-64.7679936149297</v>
       </c>
       <c r="O10" t="n">
-        <v>-35.4774953631028</v>
+        <v>-74.4183693074558</v>
       </c>
     </row>
     <row r="11">
@@ -1021,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.413467761943</v>
+        <v>48.7384677666593</v>
       </c>
       <c r="H2" t="n">
-        <v>196.900529639046</v>
+        <v>95.6344163498311</v>
       </c>
       <c r="I2" t="n">
-        <v>254.480055366507</v>
+        <v>141.042236112038</v>
       </c>
       <c r="J2" t="n">
-        <v>283.461340854662</v>
+        <v>166.374420621993</v>
       </c>
       <c r="K2" t="n">
-        <v>297.066265186449</v>
+        <v>178.86670403732</v>
       </c>
       <c r="L2" t="n">
-        <v>304.014328967341</v>
+        <v>185.423330567905</v>
       </c>
       <c r="M2" t="n">
-        <v>307.928526413252</v>
+        <v>189.175819304807</v>
       </c>
       <c r="N2" t="n">
-        <v>310.325836170511</v>
+        <v>191.49661822277</v>
       </c>
     </row>
     <row r="3">
@@ -1065,28 +1065,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113.047841442257</v>
+        <v>63.0103414452833</v>
       </c>
       <c r="H3" t="n">
-        <v>178.357141603896</v>
+        <v>110.534369914659</v>
       </c>
       <c r="I3" t="n">
-        <v>229.346314524635</v>
+        <v>153.526849196892</v>
       </c>
       <c r="J3" t="n">
-        <v>254.115281406992</v>
+        <v>176.070809840718</v>
       </c>
       <c r="K3" t="n">
-        <v>265.181403424928</v>
+        <v>186.523788366962</v>
       </c>
       <c r="L3" t="n">
-        <v>270.582520058676</v>
+        <v>191.732315935673</v>
       </c>
       <c r="M3" t="n">
-        <v>273.506639122043</v>
+        <v>194.586309566028</v>
       </c>
       <c r="N3" t="n">
-        <v>275.233244015516</v>
+        <v>196.283890100564</v>
       </c>
     </row>
     <row r="4">
@@ -1109,28 +1109,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>98.6266297996078</v>
+        <v>73.6141298011119</v>
       </c>
       <c r="H4" t="n">
-        <v>152.292176225969</v>
+        <v>118.255347060064</v>
       </c>
       <c r="I4" t="n">
-        <v>195.372915405541</v>
+        <v>157.585622663829</v>
       </c>
       <c r="J4" t="n">
-        <v>215.889400894384</v>
+        <v>177.191959410549</v>
       </c>
       <c r="K4" t="n">
-        <v>224.683816359351</v>
+        <v>185.772661854462</v>
       </c>
       <c r="L4" t="n">
-        <v>228.807209531355</v>
+        <v>189.839655680462</v>
       </c>
       <c r="M4" t="n">
-        <v>230.961514139601</v>
+        <v>191.976697131837</v>
       </c>
       <c r="N4" t="n">
-        <v>232.1935481318</v>
+        <v>193.202523601104</v>
       </c>
     </row>
     <row r="5">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>93.6212894107406</v>
+        <v>18.9462894154569</v>
       </c>
       <c r="H5" t="n">
-        <v>141.594336376044</v>
+        <v>37.0665969469494</v>
       </c>
       <c r="I5" t="n">
-        <v>185.593056050798</v>
+        <v>69.9696166610458</v>
       </c>
       <c r="J5" t="n">
-        <v>207.765167229747</v>
+        <v>89.5753795111941</v>
       </c>
       <c r="K5" t="n">
-        <v>217.788810583664</v>
+        <v>99.0075382039711</v>
       </c>
       <c r="L5" t="n">
-        <v>222.689210454105</v>
+        <v>103.758434079803</v>
       </c>
       <c r="M5" t="n">
-        <v>225.341646553546</v>
+        <v>106.367870576697</v>
       </c>
       <c r="N5" t="n">
-        <v>226.913561824919</v>
+        <v>107.925530574442</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>86.0038727262462</v>
+        <v>35.9663727292728</v>
       </c>
       <c r="H6" t="n">
-        <v>127.369225945419</v>
+        <v>57.6641792119662</v>
       </c>
       <c r="I6" t="n">
-        <v>166.283950575601</v>
+        <v>89.2643756641462</v>
       </c>
       <c r="J6" t="n">
-        <v>185.441397370438</v>
+        <v>106.867198322822</v>
       </c>
       <c r="K6" t="n">
-        <v>193.826256970192</v>
+        <v>114.932615726303</v>
       </c>
       <c r="L6" t="n">
-        <v>197.843089402058</v>
+        <v>118.875905933704</v>
       </c>
       <c r="M6" t="n">
-        <v>199.994968889772</v>
+        <v>121.007801107127</v>
       </c>
       <c r="N6" t="n">
-        <v>201.261281140192</v>
+        <v>122.267597124414</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>75.4481000486094</v>
+        <v>50.4356000501135</v>
       </c>
       <c r="H7" t="n">
-        <v>107.732156528121</v>
+        <v>73.0101013942496</v>
       </c>
       <c r="I7" t="n">
-        <v>141.086677644302</v>
+        <v>102.901632538931</v>
       </c>
       <c r="J7" t="n">
-        <v>157.61674529353</v>
+        <v>118.774557834411</v>
       </c>
       <c r="K7" t="n">
-        <v>164.781507191585</v>
+        <v>125.819129523402</v>
       </c>
       <c r="L7" t="n">
-        <v>168.193119754213</v>
+        <v>129.205090228531</v>
       </c>
       <c r="M7" t="n">
-        <v>170.010987765366</v>
+        <v>131.016114099001</v>
       </c>
       <c r="N7" t="n">
-        <v>171.072032067195</v>
+        <v>132.074814334467</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29.8303343435916</v>
+        <v>-44.8446656516921</v>
       </c>
       <c r="H8" t="n">
-        <v>55.4155191153822</v>
+        <v>-46.8361410938528</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0605057239065</v>
+        <v>-45.0355811101528</v>
       </c>
       <c r="J8" t="n">
-        <v>75.9020374094042</v>
+        <v>-41.2521901830115</v>
       </c>
       <c r="K8" t="n">
-        <v>79.4990084034554</v>
+        <v>-38.6091234560273</v>
       </c>
       <c r="L8" t="n">
-        <v>81.5551043660841</v>
+        <v>-36.9355578656631</v>
       </c>
       <c r="M8" t="n">
-        <v>82.8218561677867</v>
+        <v>-35.8511889750334</v>
       </c>
       <c r="N8" t="n">
-        <v>83.6504148937748</v>
+        <v>-35.1202165387623</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0885951092812</v>
+        <v>-22.9489048876922</v>
       </c>
       <c r="H9" t="n">
-        <v>51.1009468998355</v>
+        <v>-16.3638207951224</v>
       </c>
       <c r="I9" t="n">
-        <v>63.235321704444</v>
+        <v>-12.443842138827</v>
       </c>
       <c r="J9" t="n">
-        <v>68.8771035694531</v>
+        <v>-8.9781168239954</v>
       </c>
       <c r="K9" t="n">
-        <v>71.5727561861699</v>
+        <v>-6.92270868470105</v>
       </c>
       <c r="L9" t="n">
-        <v>72.9644322483196</v>
+        <v>-5.76636317172253</v>
       </c>
       <c r="M9" t="n">
-        <v>73.7407932765848</v>
+        <v>-5.09448647650869</v>
       </c>
       <c r="N9" t="n">
-        <v>74.2035430759925</v>
+        <v>-4.68531430311303</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>23.2231837480419</v>
+        <v>-1.78931625045402</v>
       </c>
       <c r="H10" t="n">
-        <v>44.6711283344554</v>
+        <v>11.4606557825138</v>
       </c>
       <c r="I10" t="n">
-        <v>54.4536358298552</v>
+        <v>17.0849575354461</v>
       </c>
       <c r="J10" t="n">
-        <v>58.4683362896304</v>
+        <v>19.9978358305811</v>
       </c>
       <c r="K10" t="n">
-        <v>60.1110303072525</v>
+        <v>21.3410837591026</v>
       </c>
       <c r="L10" t="n">
-        <v>60.8290814682488</v>
+        <v>21.9573673205318</v>
       </c>
       <c r="M10" t="n">
-        <v>61.1686631683165</v>
+        <v>22.2522060192151</v>
       </c>
       <c r="N10" t="n">
-        <v>61.3412608220064</v>
+        <v>22.4003868776534</v>
       </c>
     </row>
     <row r="11">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.479796440991113</v>
+        <v>0.189481292421914</v>
       </c>
       <c r="H2" t="n">
-        <v>1.58340755419517</v>
+        <v>0.769059674785861</v>
       </c>
       <c r="I2" t="n">
-        <v>8.21171161456527</v>
+        <v>4.55123356035671</v>
       </c>
       <c r="J2" t="n">
-        <v>12.5462691793707</v>
+        <v>7.36389046700948</v>
       </c>
       <c r="K2" t="n">
-        <v>5.52796193522837</v>
+        <v>3.3284436749406</v>
       </c>
       <c r="L2" t="n">
-        <v>4.13634055052738</v>
+        <v>2.52282201252514</v>
       </c>
       <c r="M2" t="n">
-        <v>3.53858676155493</v>
+        <v>2.17392996224038</v>
       </c>
       <c r="N2" t="n">
-        <v>3.20522436352306</v>
+        <v>1.97788760946944</v>
       </c>
     </row>
     <row r="3">
@@ -1563,28 +1563,28 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.439497835765769</v>
+        <v>0.244966275717961</v>
       </c>
       <c r="H3" t="n">
-        <v>1.43428789083492</v>
+        <v>0.888880068742929</v>
       </c>
       <c r="I3" t="n">
-        <v>7.40068133051637</v>
+        <v>4.95409437443739</v>
       </c>
       <c r="J3" t="n">
-        <v>11.2473846116403</v>
+        <v>7.79306189772123</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9346320193691</v>
+        <v>3.47093064054248</v>
       </c>
       <c r="L3" t="n">
-        <v>3.68147598103122</v>
+        <v>2.60866044026644</v>
       </c>
       <c r="M3" t="n">
-        <v>3.14302472612032</v>
+        <v>2.23610506967484</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84276781545606</v>
+        <v>2.02733331675203</v>
       </c>
     </row>
     <row r="4">
@@ -1607,28 +1607,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.383432268964994</v>
+        <v>0.286190787162395</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22468224297352</v>
+        <v>0.950969559107504</v>
       </c>
       <c r="I4" t="n">
-        <v>6.30440777096085</v>
+        <v>5.08506525610956</v>
       </c>
       <c r="J4" t="n">
-        <v>9.5554706981464</v>
+        <v>7.8426850465112</v>
       </c>
       <c r="K4" t="n">
-        <v>4.18103207887568</v>
+        <v>3.45695329186225</v>
       </c>
       <c r="L4" t="n">
-        <v>3.11309188041341</v>
+        <v>2.58290939297669</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65411381622454</v>
+        <v>2.20611648719442</v>
       </c>
       <c r="N4" t="n">
-        <v>2.39822899281897</v>
+        <v>1.99550718490658</v>
       </c>
     </row>
     <row r="5">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.363972929979722</v>
+        <v>0.0736577814105229</v>
       </c>
       <c r="H5" t="n">
-        <v>1.13865382820494</v>
+        <v>0.298077053026213</v>
       </c>
       <c r="I5" t="n">
-        <v>5.98882553589534</v>
+        <v>2.25782060984969</v>
       </c>
       <c r="J5" t="n">
-        <v>9.19588437104686</v>
+        <v>3.96469169236008</v>
       </c>
       <c r="K5" t="n">
-        <v>4.05272626317745</v>
+        <v>1.84238322095816</v>
       </c>
       <c r="L5" t="n">
-        <v>3.02985196288295</v>
+        <v>1.41171049338801</v>
       </c>
       <c r="M5" t="n">
-        <v>2.58953263151475</v>
+        <v>1.22233540056095</v>
       </c>
       <c r="N5" t="n">
-        <v>2.34369424650612</v>
+        <v>1.11471717699097</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.334358581715749</v>
+        <v>0.139827021667941</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02426029479798</v>
+        <v>0.463715852557997</v>
       </c>
       <c r="I6" t="n">
-        <v>5.36574800052945</v>
+        <v>2.88043520484341</v>
       </c>
       <c r="J6" t="n">
-        <v>8.20781303508003</v>
+        <v>4.73004407782991</v>
       </c>
       <c r="K6" t="n">
-        <v>3.60681873421921</v>
+        <v>2.138725258664</v>
       </c>
       <c r="L6" t="n">
-        <v>2.69180204799905</v>
+        <v>1.61739491643198</v>
       </c>
       <c r="M6" t="n">
-        <v>2.29825913673609</v>
+        <v>1.39057140314404</v>
       </c>
       <c r="N6" t="n">
-        <v>2.07874268447941</v>
+        <v>1.26285031890565</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.293320741563565</v>
+        <v>0.196079259760966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.866345615164543</v>
+        <v>0.587122575506193</v>
       </c>
       <c r="I7" t="n">
-        <v>4.55266762577349</v>
+        <v>3.32049020447076</v>
       </c>
       <c r="J7" t="n">
-        <v>6.97626740798793</v>
+        <v>5.25707516149548</v>
       </c>
       <c r="K7" t="n">
-        <v>3.06633908368197</v>
+        <v>2.34130710968613</v>
       </c>
       <c r="L7" t="n">
-        <v>2.28839220809818</v>
+        <v>1.75793113391123</v>
       </c>
       <c r="M7" t="n">
-        <v>1.9536956761779</v>
+        <v>1.50558278020306</v>
       </c>
       <c r="N7" t="n">
-        <v>1.76693069409114</v>
+        <v>1.36414491921329</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.115971850651164</v>
+        <v>-0.174343297918035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.44563288756915</v>
+        <v>-0.376640427292437</v>
       </c>
       <c r="I8" t="n">
-        <v>2.22848488516712</v>
+        <v>-1.45323453320661</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35949653568213</v>
+        <v>-1.82586126458783</v>
       </c>
       <c r="K8" t="n">
-        <v>1.47935845918714</v>
+        <v>-0.718458437828665</v>
       </c>
       <c r="L8" t="n">
-        <v>1.10961771584183</v>
+        <v>-0.50253567414089</v>
       </c>
       <c r="M8" t="n">
-        <v>0.951754380201275</v>
+        <v>-0.41198697688308</v>
       </c>
       <c r="N8" t="n">
-        <v>0.863989770059041</v>
+        <v>-0.362741868648007</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.105312748767038</v>
+        <v>-0.0892188112807706</v>
       </c>
       <c r="H9" t="n">
-        <v>0.410936555102492</v>
+        <v>-0.131592319787009</v>
       </c>
       <c r="I9" t="n">
-        <v>2.04051443223435</v>
+        <v>-0.401545193292471</v>
       </c>
       <c r="J9" t="n">
-        <v>3.04856626682234</v>
+        <v>-0.397380009768025</v>
       </c>
       <c r="K9" t="n">
-        <v>1.33186267901609</v>
+        <v>-0.12882132568531</v>
       </c>
       <c r="L9" t="n">
-        <v>0.99273524665791</v>
+        <v>-0.078455650091499</v>
       </c>
       <c r="M9" t="n">
-        <v>0.847398576268612</v>
+        <v>-0.0585437231576946</v>
       </c>
       <c r="N9" t="n">
-        <v>0.766417024962825</v>
+        <v>-0.0483926305989214</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0902851294340598</v>
+        <v>-0.006956352368539</v>
       </c>
       <c r="H10" t="n">
-        <v>0.359230125936503</v>
+        <v>0.0921627228496002</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75714184420199</v>
+        <v>0.551307425747447</v>
       </c>
       <c r="J10" t="n">
-        <v>2.58786430399264</v>
+        <v>0.885123278464898</v>
       </c>
       <c r="K10" t="n">
-        <v>1.11857698556682</v>
+        <v>0.397125868879107</v>
       </c>
       <c r="L10" t="n">
-        <v>0.827624793815165</v>
+        <v>0.298746276661509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.702924877505283</v>
+        <v>0.255713111585231</v>
       </c>
       <c r="N10" t="n">
-        <v>0.633567949424253</v>
+        <v>0.231364125715743</v>
       </c>
     </row>
     <row r="11">
@@ -1981,236 +1981,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.66596007526694</v>
+        <v>0.657921237458151</v>
       </c>
       <c r="B2" t="n">
-        <v>5.49794359190356</v>
+        <v>2.67034643075803</v>
       </c>
       <c r="C2" t="n">
-        <v>28.51289115695</v>
+        <v>15.8028963055809</v>
       </c>
       <c r="D2" t="n">
-        <v>43.5634401605969</v>
+        <v>25.5690673555952</v>
       </c>
       <c r="E2" t="n">
-        <v>19.1943147028396</v>
+        <v>11.5570975553121</v>
       </c>
       <c r="F2" t="n">
-        <v>14.3622953947963</v>
+        <v>8.75979976256082</v>
       </c>
       <c r="G2" t="n">
-        <v>12.2867611427902</v>
+        <v>7.54836887918084</v>
       </c>
       <c r="H2" t="n">
-        <v>11.1292526698863</v>
+        <v>6.86766617929602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.93396281994308</v>
+        <v>1.07794767305965</v>
       </c>
       <c r="B3" t="n">
-        <v>6.311429154449</v>
+        <v>3.9114208636364</v>
       </c>
       <c r="C3" t="n">
-        <v>32.5658999219588</v>
+        <v>21.799957922335</v>
       </c>
       <c r="D3" t="n">
-        <v>49.4929027866819</v>
+        <v>34.2925282838942</v>
       </c>
       <c r="E3" t="n">
-        <v>21.71431592816</v>
+        <v>15.2734558924833</v>
       </c>
       <c r="F3" t="n">
-        <v>16.1999379528739</v>
+        <v>11.4791288847675</v>
       </c>
       <c r="G3" t="n">
-        <v>13.830541285573</v>
+        <v>9.83973916208803</v>
       </c>
       <c r="H3" t="n">
-        <v>12.5092931373452</v>
+        <v>8.92106158247364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.31124303065902</v>
+        <v>1.72509336278187</v>
       </c>
       <c r="B4" t="n">
-        <v>7.38210768354199</v>
+        <v>5.73222950637148</v>
       </c>
       <c r="C4" t="n">
-        <v>38.0015447379995</v>
+        <v>30.6516237283684</v>
       </c>
       <c r="D4" t="n">
-        <v>57.5982170602696</v>
+        <v>47.2739323801086</v>
       </c>
       <c r="E4" t="n">
-        <v>25.2023161205179</v>
+        <v>20.8377328926894</v>
       </c>
       <c r="F4" t="n">
-        <v>18.7650140449279</v>
+        <v>15.5691938747235</v>
       </c>
       <c r="G4" t="n">
-        <v>15.9983980401108</v>
+        <v>13.2979714242976</v>
       </c>
       <c r="H4" t="n">
-        <v>14.4559821752595</v>
+        <v>12.0284661648194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.75484070810942</v>
+        <v>0.355129908412178</v>
       </c>
       <c r="B5" t="n">
-        <v>5.48984807823477</v>
+        <v>1.43713365395836</v>
       </c>
       <c r="C5" t="n">
-        <v>28.8742210711655</v>
+        <v>10.8857422940585</v>
       </c>
       <c r="D5" t="n">
-        <v>44.3365726189562</v>
+        <v>19.1151643536905</v>
       </c>
       <c r="E5" t="n">
-        <v>19.5396097886845</v>
+        <v>8.8827734421218</v>
       </c>
       <c r="F5" t="n">
-        <v>14.6079752807673</v>
+        <v>6.80634969749132</v>
       </c>
       <c r="G5" t="n">
-        <v>12.4850418876287</v>
+        <v>5.89330618622406</v>
       </c>
       <c r="H5" t="n">
-        <v>11.2997691101915</v>
+        <v>5.37444111660048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.97254733570984</v>
+        <v>0.824909047155306</v>
       </c>
       <c r="B6" t="n">
-        <v>6.04262018701451</v>
+        <v>2.73569012284935</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6552124016747</v>
+        <v>16.9931178671794</v>
       </c>
       <c r="D6" t="n">
-        <v>48.4219655774098</v>
+        <v>27.904879233653</v>
       </c>
       <c r="E6" t="n">
-        <v>21.278415071819</v>
+        <v>12.617402517814</v>
       </c>
       <c r="F6" t="n">
-        <v>15.8802771886166</v>
+        <v>9.54181590562793</v>
       </c>
       <c r="G6" t="n">
-        <v>13.5585720984831</v>
+        <v>8.20367134682357</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2635355218192</v>
+        <v>7.45018123708689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.2065043089831</v>
+        <v>1.4750055835074</v>
       </c>
       <c r="B7" t="n">
-        <v>6.5170820267919</v>
+        <v>4.41662763379769</v>
       </c>
       <c r="C7" t="n">
-        <v>34.2474271682562</v>
+        <v>24.9783765888686</v>
       </c>
       <c r="D7" t="n">
-        <v>52.4789485199359</v>
+        <v>39.5463305276489</v>
       </c>
       <c r="E7" t="n">
-        <v>23.0665256227076</v>
+        <v>17.6124749945638</v>
       </c>
       <c r="F7" t="n">
-        <v>17.2144228222529</v>
+        <v>13.2240311448623</v>
       </c>
       <c r="G7" t="n">
-        <v>14.6966692670589</v>
+        <v>11.3257414881071</v>
       </c>
       <c r="H7" t="n">
-        <v>13.2917303065719</v>
+        <v>10.2617756462655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.40385192394209</v>
+        <v>-2.11044467113698</v>
       </c>
       <c r="B8" t="n">
-        <v>5.39443479666108</v>
+        <v>-4.55927352646374</v>
       </c>
       <c r="C8" t="n">
-        <v>26.9760530331447</v>
+        <v>-17.5915628139604</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6670726440357</v>
+        <v>-22.1022501128574</v>
       </c>
       <c r="E8" t="n">
-        <v>17.9077957924182</v>
+        <v>-8.69701789317852</v>
       </c>
       <c r="F8" t="n">
-        <v>13.4320436940371</v>
+        <v>-6.08324924566635</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5210907669728</v>
+        <v>-4.98714737144356</v>
       </c>
       <c r="H8" t="n">
-        <v>10.4586905714908</v>
+        <v>-4.39102995542948</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.80992976943499</v>
+        <v>-1.53333555928617</v>
       </c>
       <c r="B9" t="n">
-        <v>7.06245267678227</v>
+        <v>-2.26157668278491</v>
       </c>
       <c r="C9" t="n">
-        <v>35.0687628905441</v>
+        <v>-6.90105051498804</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3933797666106</v>
+        <v>-6.82946668734784</v>
       </c>
       <c r="E9" t="n">
-        <v>22.8897065148599</v>
+        <v>-2.21395372379551</v>
       </c>
       <c r="F9" t="n">
-        <v>17.0613823789578</v>
+        <v>-1.34835732941598</v>
       </c>
       <c r="G9" t="n">
-        <v>14.5635920410563</v>
+        <v>-1.00614625102101</v>
       </c>
       <c r="H9" t="n">
-        <v>13.1718239768915</v>
+        <v>-0.831687177171783</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.68538465330044</v>
+        <v>-0.20690541189364</v>
       </c>
       <c r="B10" t="n">
-        <v>10.6847171094507</v>
+        <v>2.74123062234136</v>
       </c>
       <c r="C10" t="n">
-        <v>52.2633325296201</v>
+        <v>16.3977446743767</v>
       </c>
       <c r="D10" t="n">
-        <v>76.9718239352074</v>
+        <v>26.3265554711818</v>
       </c>
       <c r="E10" t="n">
-        <v>33.2702571221327</v>
+        <v>11.8118644831255</v>
       </c>
       <c r="F10" t="n">
-        <v>24.6163563582793</v>
+        <v>8.88572317065116</v>
       </c>
       <c r="G10" t="n">
-        <v>20.9073597203448</v>
+        <v>7.60577151301763</v>
       </c>
       <c r="H10" t="n">
-        <v>18.8444504523807</v>
+        <v>6.88155044375386</v>
       </c>
     </row>
     <row r="11">
@@ -2281,236 +2281,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.09760911611468</v>
+        <v>0.433467979599574</v>
       </c>
       <c r="B2" t="n">
-        <v>3.62229149182382</v>
+        <v>1.7593438336838</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7855697896237</v>
+        <v>10.4116558995216</v>
       </c>
       <c r="D2" t="n">
-        <v>28.7015455889155</v>
+        <v>16.8460468151102</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6460742416261</v>
+        <v>7.61433351306727</v>
       </c>
       <c r="F2" t="n">
-        <v>9.46252349482881</v>
+        <v>5.77134843593735</v>
       </c>
       <c r="G2" t="n">
-        <v>8.09506856620752</v>
+        <v>4.97320350984861</v>
       </c>
       <c r="H2" t="n">
-        <v>7.33245013933093</v>
+        <v>4.52472608241822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.00541977771384</v>
+        <v>0.560398524035061</v>
       </c>
       <c r="B3" t="n">
-        <v>3.28115702747045</v>
+        <v>2.03345165414212</v>
       </c>
       <c r="C3" t="n">
-        <v>16.9302116477869</v>
+        <v>11.3332627816963</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7301447603131</v>
+        <v>17.8278433323002</v>
       </c>
       <c r="E3" t="n">
-        <v>11.2887396120373</v>
+        <v>7.94029464785409</v>
       </c>
       <c r="F3" t="n">
-        <v>8.42194991940744</v>
+        <v>5.96771721392825</v>
       </c>
       <c r="G3" t="n">
-        <v>7.19015877741242</v>
+        <v>5.11543875564265</v>
       </c>
       <c r="H3" t="n">
-        <v>6.50327431107345</v>
+        <v>4.63784084199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.875025144334255</v>
+        <v>0.653111788217209</v>
       </c>
       <c r="B4" t="n">
-        <v>2.79482934316972</v>
+        <v>2.17019365105</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3871962957574</v>
+        <v>11.6045526676384</v>
       </c>
       <c r="D4" t="n">
-        <v>21.8063992094277</v>
+        <v>17.8976762527467</v>
       </c>
       <c r="E4" t="n">
-        <v>9.54147184367092</v>
+        <v>7.88906228819439</v>
       </c>
       <c r="F4" t="n">
-        <v>7.10434121608381</v>
+        <v>5.89441955548627</v>
       </c>
       <c r="G4" t="n">
-        <v>6.05691412303498</v>
+        <v>5.03454600426893</v>
       </c>
       <c r="H4" t="n">
-        <v>5.47296312919244</v>
+        <v>4.55391761159346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.844675812833162</v>
+        <v>0.170938389258473</v>
       </c>
       <c r="B5" t="n">
-        <v>2.64248593412753</v>
+        <v>0.691750557014932</v>
       </c>
       <c r="C5" t="n">
-        <v>13.8983305097174</v>
+        <v>5.23974807401886</v>
       </c>
       <c r="D5" t="n">
-        <v>21.3409857328306</v>
+        <v>9.20090177602964</v>
       </c>
       <c r="E5" t="n">
-        <v>9.40520453191515</v>
+        <v>4.2756381492429</v>
       </c>
       <c r="F5" t="n">
-        <v>7.03140936787494</v>
+        <v>3.2761714135006</v>
       </c>
       <c r="G5" t="n">
-        <v>6.00955565707753</v>
+        <v>2.83668664062763</v>
       </c>
       <c r="H5" t="n">
-        <v>5.43903592723299</v>
+        <v>2.58693589549749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.775949482848157</v>
+        <v>0.324498042175797</v>
       </c>
       <c r="B6" t="n">
-        <v>2.37701165608503</v>
+        <v>1.07615026399043</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4523479096581</v>
+        <v>6.68465632347964</v>
       </c>
       <c r="D6" t="n">
-        <v>19.0479581747332</v>
+        <v>10.9770631195025</v>
       </c>
       <c r="E6" t="n">
-        <v>8.37038223210233</v>
+        <v>4.96336223792653</v>
       </c>
       <c r="F6" t="n">
-        <v>6.24689336925755</v>
+        <v>3.75350542081665</v>
       </c>
       <c r="G6" t="n">
-        <v>5.33359418935894</v>
+        <v>3.2271137040842</v>
       </c>
       <c r="H6" t="n">
-        <v>4.82416004613712</v>
+        <v>2.93071003842972</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.67903927174487</v>
+        <v>0.453924659547153</v>
       </c>
       <c r="B7" t="n">
-        <v>2.00559528270934</v>
+        <v>1.35919227522579</v>
       </c>
       <c r="C7" t="n">
-        <v>10.5394527936298</v>
+        <v>7.68695469083007</v>
       </c>
       <c r="D7" t="n">
-        <v>16.1501007905744</v>
+        <v>12.1701604535059</v>
       </c>
       <c r="E7" t="n">
-        <v>7.09859332554229</v>
+        <v>5.42013996766002</v>
       </c>
       <c r="F7" t="n">
-        <v>5.29764165387833</v>
+        <v>4.06962109322921</v>
       </c>
       <c r="G7" t="n">
-        <v>4.522817179894</v>
+        <v>3.48543314451955</v>
       </c>
       <c r="H7" t="n">
-        <v>4.09045512889273</v>
+        <v>3.15800365006344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>117.139907940818</v>
+        <v>-176.09926679231</v>
       </c>
       <c r="B8" t="n">
-        <v>450.121259013703</v>
+        <v>-380.433913334154</v>
       </c>
       <c r="C8" t="n">
-        <v>2250.92996990439</v>
+        <v>-1467.87137120271</v>
       </c>
       <c r="D8" t="n">
-        <v>3393.33306063226</v>
+        <v>-1844.25116306771</v>
       </c>
       <c r="E8" t="n">
-        <v>1494.25841484502</v>
+        <v>-725.694681890541</v>
       </c>
       <c r="F8" t="n">
-        <v>1120.79367840896</v>
+        <v>-507.597164961253</v>
       </c>
       <c r="G8" t="n">
-        <v>961.340358484041</v>
+        <v>-416.136469961691</v>
       </c>
       <c r="H8" t="n">
-        <v>872.691791656847</v>
+        <v>-366.395369748128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>59.3640241259176</v>
+        <v>-50.2919895963735</v>
       </c>
       <c r="B9" t="n">
-        <v>231.641922340187</v>
+        <v>-74.1776255779067</v>
       </c>
       <c r="C9" t="n">
-        <v>1150.2230205044</v>
+        <v>-226.348080563266</v>
       </c>
       <c r="D9" t="n">
-        <v>1718.45444670175</v>
+        <v>-224.000197157611</v>
       </c>
       <c r="E9" t="n">
-        <v>750.761224402371</v>
+        <v>-72.6156365249962</v>
       </c>
       <c r="F9" t="n">
-        <v>559.597577911617</v>
+        <v>-44.2248745700203</v>
       </c>
       <c r="G9" t="n">
-        <v>477.67236269901</v>
+        <v>-33.0006673896846</v>
       </c>
       <c r="H9" t="n">
-        <v>432.023656139223</v>
+        <v>-27.278570961488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56.041284329914</v>
+        <v>-4.31790842443315</v>
       </c>
       <c r="B10" t="n">
-        <v>222.979329527147</v>
+        <v>57.2067336914627</v>
       </c>
       <c r="C10" t="n">
-        <v>1090.68333086716</v>
+        <v>342.204484760368</v>
       </c>
       <c r="D10" t="n">
-        <v>1606.32476440329</v>
+        <v>549.408807700775</v>
       </c>
       <c r="E10" t="n">
-        <v>694.316896769047</v>
+        <v>246.501764710572</v>
       </c>
       <c r="F10" t="n">
-        <v>513.718667508327</v>
+        <v>185.436130377578</v>
       </c>
       <c r="G10" t="n">
-        <v>436.315627720446</v>
+        <v>158.724823047424</v>
       </c>
       <c r="H10" t="n">
-        <v>393.26478035275</v>
+        <v>143.611055710427</v>
       </c>
     </row>
     <row r="11">
@@ -2581,236 +2581,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.662650125592685</v>
+        <v>0.261693900774832</v>
       </c>
       <c r="B2" t="n">
-        <v>2.18685493473943</v>
+        <v>1.0621535437662</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3412507218314</v>
+        <v>6.2857396026993</v>
       </c>
       <c r="D2" t="n">
-        <v>17.3277376344349</v>
+        <v>10.1703191727197</v>
       </c>
       <c r="E2" t="n">
-        <v>7.63470579957576</v>
+        <v>4.59693618125112</v>
       </c>
       <c r="F2" t="n">
-        <v>5.71272804700078</v>
+        <v>3.48428662787588</v>
       </c>
       <c r="G2" t="n">
-        <v>4.88716622641312</v>
+        <v>3.00242944598034</v>
       </c>
       <c r="H2" t="n">
-        <v>4.42675715279144</v>
+        <v>2.73167402016518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.607207613484681</v>
+        <v>0.338443959351388</v>
       </c>
       <c r="B3" t="n">
-        <v>1.98160367667431</v>
+        <v>1.22807145176284</v>
       </c>
       <c r="C3" t="n">
-        <v>10.2247376054394</v>
+        <v>6.84454752055528</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5393201335768</v>
+        <v>10.7668482790337</v>
       </c>
       <c r="E3" t="n">
-        <v>6.81765844577016</v>
+        <v>4.79541726785177</v>
       </c>
       <c r="F3" t="n">
-        <v>5.08630546643808</v>
+        <v>3.60410985316041</v>
       </c>
       <c r="G3" t="n">
-        <v>4.34238439364689</v>
+        <v>3.08938955408619</v>
       </c>
       <c r="H3" t="n">
-        <v>3.92755121969266</v>
+        <v>2.80095173360319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.529283342954587</v>
+        <v>0.395052865427835</v>
       </c>
       <c r="B4" t="n">
-        <v>1.69053041197565</v>
+        <v>1.3127021068183</v>
       </c>
       <c r="C4" t="n">
-        <v>8.70249660877572</v>
+        <v>7.01933706612891</v>
       </c>
       <c r="D4" t="n">
-        <v>13.1902082427008</v>
+        <v>10.8259082376199</v>
       </c>
       <c r="E4" t="n">
-        <v>5.7714251376942</v>
+        <v>4.77191917021924</v>
       </c>
       <c r="F4" t="n">
-        <v>4.29725876186081</v>
+        <v>3.56540392845318</v>
       </c>
       <c r="G4" t="n">
-        <v>3.66369329588568</v>
+        <v>3.04528544882616</v>
       </c>
       <c r="H4" t="n">
-        <v>3.31047426424541</v>
+        <v>2.75456397180197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.514919335551831</v>
+        <v>0.104205045864926</v>
       </c>
       <c r="B5" t="n">
-        <v>1.61087494247306</v>
+        <v>0.421695201607593</v>
       </c>
       <c r="C5" t="n">
-        <v>8.47250389156927</v>
+        <v>3.1941811944196</v>
       </c>
       <c r="D5" t="n">
-        <v>13.0095902198406</v>
+        <v>5.60892375158684</v>
       </c>
       <c r="E5" t="n">
-        <v>5.73346791126761</v>
+        <v>2.60645412289445</v>
       </c>
       <c r="F5" t="n">
-        <v>4.28638844002772</v>
+        <v>1.99717333178432</v>
       </c>
       <c r="G5" t="n">
-        <v>3.6634604174647</v>
+        <v>1.72926083352791</v>
       </c>
       <c r="H5" t="n">
-        <v>3.31566823998372</v>
+        <v>1.57701131272697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.473174979427675</v>
+        <v>0.197879317951553</v>
       </c>
       <c r="B6" t="n">
-        <v>1.44950472463614</v>
+        <v>0.656237796764412</v>
       </c>
       <c r="C6" t="n">
-        <v>7.59345755905574</v>
+        <v>4.07631190980833</v>
       </c>
       <c r="D6" t="n">
-        <v>11.6154690694373</v>
+        <v>6.69382702167904</v>
       </c>
       <c r="E6" t="n">
-        <v>5.10426970830502</v>
+        <v>3.02666459187854</v>
       </c>
       <c r="F6" t="n">
-        <v>3.80936350474216</v>
+        <v>2.28889236932984</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25243250573742</v>
+        <v>1.96789803240274</v>
       </c>
       <c r="H6" t="n">
-        <v>2.94177891865859</v>
+        <v>1.78715070090952</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.414660375954548</v>
+        <v>0.277192465612773</v>
       </c>
       <c r="B7" t="n">
-        <v>1.22473165919244</v>
+        <v>0.830000860467759</v>
       </c>
       <c r="C7" t="n">
-        <v>6.43599514727884</v>
+        <v>4.69409598925639</v>
       </c>
       <c r="D7" t="n">
-        <v>9.86217902878458</v>
+        <v>7.43179889450343</v>
       </c>
       <c r="E7" t="n">
-        <v>4.33480875053681</v>
+        <v>3.30984873811631</v>
       </c>
       <c r="F7" t="n">
-        <v>3.23504423275097</v>
+        <v>2.48514435427972</v>
       </c>
       <c r="G7" t="n">
-        <v>2.76189191144923</v>
+        <v>2.1284056433984</v>
       </c>
       <c r="H7" t="n">
-        <v>2.49786681293618</v>
+        <v>1.9284583900961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.926617088047317</v>
+        <v>-1.3930059590349</v>
       </c>
       <c r="B8" t="n">
-        <v>3.56061446203454</v>
+        <v>-3.00936351380983</v>
       </c>
       <c r="C8" t="n">
-        <v>17.8056326898005</v>
+        <v>-11.6113689990184</v>
       </c>
       <c r="D8" t="n">
-        <v>26.8424352954619</v>
+        <v>-14.5886630132326</v>
       </c>
       <c r="E8" t="n">
-        <v>11.8200996184275</v>
+        <v>-5.74049531680162</v>
       </c>
       <c r="F8" t="n">
-        <v>8.86586469842414</v>
+        <v>-4.01526870872311</v>
       </c>
       <c r="G8" t="n">
-        <v>7.60453392238365</v>
+        <v>-3.29178305502005</v>
       </c>
       <c r="H8" t="n">
-        <v>6.90329317277948</v>
+        <v>-2.89831379039122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.830356909870997</v>
+        <v>-0.703461426131268</v>
       </c>
       <c r="B9" t="n">
-        <v>3.24010162153074</v>
+        <v>-1.03756281457253</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0887953104839</v>
+        <v>-3.16605377582024</v>
       </c>
       <c r="D9" t="n">
-        <v>24.0369574860805</v>
+        <v>-3.13321265296573</v>
       </c>
       <c r="E9" t="n">
-        <v>10.5013057912553</v>
+        <v>-1.01571442369397</v>
       </c>
       <c r="F9" t="n">
-        <v>7.82739584129906</v>
+        <v>-0.618597386684941</v>
       </c>
       <c r="G9" t="n">
-        <v>6.68146327446087</v>
+        <v>-0.461598292919895</v>
       </c>
       <c r="H9" t="n">
-        <v>6.0429499749212</v>
+        <v>-0.381560216356504</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.729901977920877</v>
+        <v>-0.0562380027003177</v>
       </c>
       <c r="B10" t="n">
-        <v>2.90416352164971</v>
+        <v>0.745081212378696</v>
       </c>
       <c r="C10" t="n">
-        <v>14.2054546037649</v>
+        <v>4.45699511113204</v>
       </c>
       <c r="D10" t="n">
-        <v>20.9213553318835</v>
+        <v>7.15569923535623</v>
       </c>
       <c r="E10" t="n">
-        <v>9.04303465409873</v>
+        <v>3.21052823422167</v>
       </c>
       <c r="F10" t="n">
-        <v>6.69085792719877</v>
+        <v>2.41518730269962</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6827327117653</v>
+        <v>2.06728956469713</v>
       </c>
       <c r="H10" t="n">
-        <v>5.12202288827402</v>
+        <v>1.87044238667445</v>
       </c>
     </row>
     <row r="11">
@@ -2881,236 +2881,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.620561409353029</v>
+        <v>0.245072217769024</v>
       </c>
       <c r="B2" t="n">
-        <v>2.04795521488619</v>
+        <v>0.994690070388696</v>
       </c>
       <c r="C2" t="n">
-        <v>10.6209027357701</v>
+        <v>5.88649617049176</v>
       </c>
       <c r="D2" t="n">
-        <v>16.2271534736477</v>
+        <v>9.52434377605851</v>
       </c>
       <c r="E2" t="n">
-        <v>7.14978177472299</v>
+        <v>4.30495835610329</v>
       </c>
       <c r="F2" t="n">
-        <v>5.34987987050721</v>
+        <v>3.26297956776308</v>
       </c>
       <c r="G2" t="n">
-        <v>4.57675422379627</v>
+        <v>2.81172790364165</v>
       </c>
       <c r="H2" t="n">
-        <v>4.14558837537808</v>
+        <v>2.55816971034386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.568439807112832</v>
+        <v>0.31683565011337</v>
       </c>
       <c r="B3" t="n">
-        <v>1.8550861134274</v>
+        <v>1.14966394303693</v>
       </c>
       <c r="C3" t="n">
-        <v>9.57192851858388</v>
+        <v>6.40755021174848</v>
       </c>
       <c r="D3" t="n">
-        <v>14.5471959560958</v>
+        <v>10.0794275681483</v>
       </c>
       <c r="E3" t="n">
-        <v>6.38237789811991</v>
+        <v>4.48924882729913</v>
       </c>
       <c r="F3" t="n">
-        <v>4.76156496402684</v>
+        <v>3.37400168286205</v>
       </c>
       <c r="G3" t="n">
-        <v>4.06514031167807</v>
+        <v>2.89214424065429</v>
       </c>
       <c r="H3" t="n">
-        <v>3.67679259641594</v>
+        <v>2.62212203507215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.495218066369245</v>
+        <v>0.36962681470138</v>
       </c>
       <c r="B4" t="n">
-        <v>1.58172595624045</v>
+        <v>1.22821510956405</v>
       </c>
       <c r="C4" t="n">
-        <v>8.14239405140811</v>
+        <v>6.567564566982</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3412714719013</v>
+        <v>10.1291404981641</v>
       </c>
       <c r="E4" t="n">
-        <v>5.39996966639663</v>
+        <v>4.4647930372316</v>
       </c>
       <c r="F4" t="n">
-        <v>4.02068231140158</v>
+        <v>3.33593048558377</v>
       </c>
       <c r="G4" t="n">
-        <v>3.42789383778915</v>
+        <v>2.849287421538</v>
       </c>
       <c r="H4" t="n">
-        <v>3.09740838385957</v>
+        <v>2.57727710868695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.481509195446565</v>
+        <v>0.0974437826113493</v>
       </c>
       <c r="B5" t="n">
-        <v>1.50635457626384</v>
+        <v>0.394333836837073</v>
       </c>
       <c r="C5" t="n">
-        <v>7.92277207433934</v>
+        <v>2.98692923501747</v>
       </c>
       <c r="D5" t="n">
-        <v>12.1654730893562</v>
+        <v>5.24499310179013</v>
       </c>
       <c r="E5" t="n">
-        <v>5.36145631065602</v>
+        <v>2.4373363768488</v>
       </c>
       <c r="F5" t="n">
-        <v>4.00826946402648</v>
+        <v>1.86758829540594</v>
       </c>
       <c r="G5" t="n">
-        <v>3.42575964111607</v>
+        <v>1.61705909096798</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1005336882355</v>
+        <v>1.47468816176327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.442331608786331</v>
+        <v>0.184980780600279</v>
       </c>
       <c r="B6" t="n">
-        <v>1.3550204145773</v>
+        <v>0.613461685443088</v>
       </c>
       <c r="C6" t="n">
-        <v>7.09848670022767</v>
+        <v>3.81060217334675</v>
       </c>
       <c r="D6" t="n">
-        <v>10.8583279836701</v>
+        <v>6.25749755200081</v>
       </c>
       <c r="E6" t="n">
-        <v>4.77155371673451</v>
+        <v>2.82937491707948</v>
       </c>
       <c r="F6" t="n">
-        <v>3.5610544951946</v>
+        <v>2.13969353427991</v>
       </c>
       <c r="G6" t="n">
-        <v>3.04042640731322</v>
+        <v>1.83962284661167</v>
       </c>
       <c r="H6" t="n">
-        <v>2.75002241952411</v>
+        <v>1.67065732349814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.387476879412276</v>
+        <v>0.25902082234162</v>
       </c>
       <c r="B7" t="n">
-        <v>1.14444308870574</v>
+        <v>0.775589282152205</v>
       </c>
       <c r="C7" t="n">
-        <v>6.01407672445054</v>
+        <v>4.38636959557987</v>
       </c>
       <c r="D7" t="n">
-        <v>9.21565352243233</v>
+        <v>6.94459951094397</v>
       </c>
       <c r="E7" t="n">
-        <v>4.0506358092222</v>
+        <v>3.09286812712615</v>
       </c>
       <c r="F7" t="n">
-        <v>3.02296750969142</v>
+        <v>2.32222810551567</v>
       </c>
       <c r="G7" t="n">
-        <v>2.58083318585439</v>
+        <v>1.98887577557661</v>
       </c>
       <c r="H7" t="n">
-        <v>2.33411653003009</v>
+        <v>1.80203627450713</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.868907198672793</v>
+        <v>-1.30624928162097</v>
       </c>
       <c r="B8" t="n">
-        <v>3.33885871269653</v>
+        <v>-2.82193977890368</v>
       </c>
       <c r="C8" t="n">
-        <v>16.6966944821778</v>
+        <v>-10.8882107181451</v>
       </c>
       <c r="D8" t="n">
-        <v>25.1706832940949</v>
+        <v>-13.6800782920184</v>
       </c>
       <c r="E8" t="n">
-        <v>11.0839415546767</v>
+        <v>-5.38297617112548</v>
       </c>
       <c r="F8" t="n">
-        <v>8.31369695021893</v>
+        <v>-3.7651970059902</v>
       </c>
       <c r="G8" t="n">
-        <v>7.13092209602463</v>
+        <v>-3.08677017710037</v>
       </c>
       <c r="H8" t="n">
-        <v>6.47335475435408</v>
+        <v>-2.7178062534877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.778150476322161</v>
+        <v>-0.659233201182557</v>
       </c>
       <c r="B9" t="n">
-        <v>3.03638903964568</v>
+        <v>-0.972328873013422</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0772560395117</v>
+        <v>-2.96699675094996</v>
       </c>
       <c r="D9" t="n">
-        <v>22.525699123808</v>
+        <v>-2.9362204244229</v>
       </c>
       <c r="E9" t="n">
-        <v>9.84106473533112</v>
+        <v>-0.95185414032087</v>
       </c>
       <c r="F9" t="n">
-        <v>7.33526960498858</v>
+        <v>-0.579704757530488</v>
       </c>
       <c r="G9" t="n">
-        <v>6.26138443330169</v>
+        <v>-0.43257655501526</v>
       </c>
       <c r="H9" t="n">
-        <v>5.66301592179979</v>
+        <v>-0.357570654948278</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.683597713592808</v>
+        <v>-0.0526703190645838</v>
       </c>
       <c r="B10" t="n">
-        <v>2.71992624126659</v>
+        <v>0.69781399233069</v>
       </c>
       <c r="C10" t="n">
-        <v>13.3042745209998</v>
+        <v>4.17424772041715</v>
       </c>
       <c r="D10" t="n">
-        <v>19.5941251055065</v>
+        <v>6.70174870656069</v>
       </c>
       <c r="E10" t="n">
-        <v>8.4693534207035</v>
+        <v>3.00685547748578</v>
       </c>
       <c r="F10" t="n">
-        <v>6.2663964742718</v>
+        <v>2.26197019321246</v>
       </c>
       <c r="G10" t="n">
-        <v>5.32222573199128</v>
+        <v>1.93614274588858</v>
       </c>
       <c r="H10" t="n">
-        <v>4.79708678878756</v>
+        <v>1.75178335943123</v>
       </c>
     </row>
     <row r="11">
@@ -3181,236 +3181,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.09032518353535</v>
+        <v>2.80011243245718</v>
       </c>
       <c r="B2" t="n">
-        <v>23.3992449675508</v>
+        <v>11.3649929718355</v>
       </c>
       <c r="C2" t="n">
-        <v>121.350849415242</v>
+        <v>67.2571181697159</v>
       </c>
       <c r="D2" t="n">
-        <v>185.405977872922</v>
+        <v>108.821936901362</v>
       </c>
       <c r="E2" t="n">
-        <v>81.6909930428194</v>
+        <v>49.1870009741222</v>
       </c>
       <c r="F2" t="n">
-        <v>61.1259214689047</v>
+        <v>37.2817030739827</v>
       </c>
       <c r="G2" t="n">
-        <v>52.2924488096451</v>
+        <v>32.1258538864412</v>
       </c>
       <c r="H2" t="n">
-        <v>47.366093372063</v>
+        <v>29.2287835621596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.30665151960591</v>
+        <v>4.0725643338111</v>
       </c>
       <c r="B3" t="n">
-        <v>23.8450361851306</v>
+        <v>14.7776311428512</v>
       </c>
       <c r="C3" t="n">
-        <v>123.036327119835</v>
+        <v>82.3618189750216</v>
       </c>
       <c r="D3" t="n">
-        <v>186.98776916852</v>
+        <v>129.559654049616</v>
       </c>
       <c r="E3" t="n">
-        <v>82.0382573220114</v>
+        <v>57.7042218990187</v>
       </c>
       <c r="F3" t="n">
-        <v>61.204538184644</v>
+        <v>43.3689798194296</v>
       </c>
       <c r="G3" t="n">
-        <v>52.2527860717503</v>
+        <v>37.1752467833443</v>
       </c>
       <c r="H3" t="n">
-        <v>47.261014931957</v>
+        <v>33.7044163910025</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.28521311033488</v>
+        <v>5.43762495608551</v>
       </c>
       <c r="B4" t="n">
-        <v>23.268962616497</v>
+        <v>18.0684216230426</v>
       </c>
       <c r="C4" t="n">
-        <v>119.783747648256</v>
+        <v>96.6162398660815</v>
       </c>
       <c r="D4" t="n">
-        <v>181.553943264782</v>
+        <v>149.011015883713</v>
       </c>
       <c r="E4" t="n">
-        <v>79.4396094986379</v>
+        <v>65.6821125453827</v>
       </c>
       <c r="F4" t="n">
-        <v>59.1487457278547</v>
+        <v>49.0752784665571</v>
       </c>
       <c r="G4" t="n">
-        <v>50.4281625082662</v>
+        <v>41.916213256694</v>
       </c>
       <c r="H4" t="n">
-        <v>45.5663508635603</v>
+        <v>37.9146365132251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.68167993746064</v>
+        <v>1.95929698551992</v>
       </c>
       <c r="B5" t="n">
-        <v>30.2881918302515</v>
+        <v>7.92884961049728</v>
       </c>
       <c r="C5" t="n">
-        <v>159.302759254817</v>
+        <v>60.0580282220019</v>
       </c>
       <c r="D5" t="n">
-        <v>244.610524269847</v>
+        <v>105.460799016779</v>
       </c>
       <c r="E5" t="n">
-        <v>107.802518600521</v>
+        <v>49.0073936774873</v>
       </c>
       <c r="F5" t="n">
-        <v>80.5940622126867</v>
+        <v>37.5514991241212</v>
       </c>
       <c r="G5" t="n">
-        <v>68.8815679982927</v>
+        <v>32.5141216549215</v>
       </c>
       <c r="H5" t="n">
-        <v>62.3422669570631</v>
+        <v>29.6514769079599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.89393827363896</v>
+        <v>3.71939877636724</v>
       </c>
       <c r="B6" t="n">
-        <v>27.2453238416264</v>
+        <v>12.3348416780428</v>
       </c>
       <c r="C6" t="n">
-        <v>142.728896814084</v>
+        <v>76.6195764488349</v>
       </c>
       <c r="D6" t="n">
-        <v>218.32782673313</v>
+        <v>125.819172470276</v>
       </c>
       <c r="E6" t="n">
-        <v>95.9413783302314</v>
+        <v>56.8900918804626</v>
       </c>
       <c r="F6" t="n">
-        <v>71.601934476775</v>
+        <v>43.0227047770908</v>
       </c>
       <c r="G6" t="n">
-        <v>61.1336930371801</v>
+        <v>36.9891993236315</v>
       </c>
       <c r="H6" t="n">
-        <v>55.2945554071526</v>
+        <v>33.5918184828904</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.75291465698857</v>
+        <v>6.51963538705215</v>
       </c>
       <c r="B7" t="n">
-        <v>28.8059917042211</v>
+        <v>19.521825635581</v>
       </c>
       <c r="C7" t="n">
-        <v>151.376198556969</v>
+        <v>110.406299298653</v>
       </c>
       <c r="D7" t="n">
-        <v>231.9608913156</v>
+        <v>174.797749119725</v>
       </c>
       <c r="E7" t="n">
-        <v>101.955774532426</v>
+        <v>77.848461397064</v>
       </c>
       <c r="F7" t="n">
-        <v>76.0890409192648</v>
+        <v>58.4512102025487</v>
       </c>
       <c r="G7" t="n">
-        <v>64.9603812329153</v>
+        <v>50.060627441752</v>
       </c>
       <c r="H7" t="n">
-        <v>58.7504455785305</v>
+        <v>45.3578185638419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.08485122732096</v>
+        <v>-4.63753172461976</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8538348093394</v>
+        <v>-10.0186353659789</v>
       </c>
       <c r="C8" t="n">
-        <v>59.2776979454457</v>
+        <v>-38.656038583296</v>
       </c>
       <c r="D8" t="n">
-        <v>89.362607849145</v>
+        <v>-48.5679096380365</v>
       </c>
       <c r="E8" t="n">
-        <v>39.350935014378</v>
+        <v>-19.1109944462426</v>
       </c>
       <c r="F8" t="n">
-        <v>29.5158312413927</v>
+        <v>-13.3674489321477</v>
       </c>
       <c r="G8" t="n">
-        <v>25.316666513354</v>
+        <v>-10.95885358509</v>
       </c>
       <c r="H8" t="n">
-        <v>22.9821278835706</v>
+        <v>-9.64893370603703</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.50164889650402</v>
+        <v>-2.96652547508563</v>
       </c>
       <c r="B9" t="n">
-        <v>13.6636404571579</v>
+        <v>-4.37544463291807</v>
       </c>
       <c r="C9" t="n">
-        <v>67.8471048717923</v>
+        <v>-13.3513776769747</v>
       </c>
       <c r="D9" t="n">
-        <v>101.364828371843</v>
+        <v>-13.2128853247869</v>
       </c>
       <c r="E9" t="n">
-        <v>44.2844340772852</v>
+        <v>-4.28330907903658</v>
       </c>
       <c r="F9" t="n">
-        <v>33.0084469513756</v>
+        <v>-2.60865036554235</v>
       </c>
       <c r="G9" t="n">
-        <v>28.1760026609315</v>
+        <v>-1.94657879499335</v>
       </c>
       <c r="H9" t="n">
-        <v>25.483366080014</v>
+        <v>-1.60905496741414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.401584442946</v>
+        <v>-0.185038973003138</v>
       </c>
       <c r="B10" t="n">
-        <v>9.555521349911</v>
+        <v>2.45152842779937</v>
       </c>
       <c r="C10" t="n">
-        <v>46.7399730557732</v>
+        <v>14.6647775248821</v>
       </c>
       <c r="D10" t="n">
-        <v>68.8371904862045</v>
+        <v>23.5442792071664</v>
       </c>
       <c r="E10" t="n">
-        <v>29.7541478160775</v>
+        <v>10.5635481121843</v>
       </c>
       <c r="F10" t="n">
-        <v>22.0148195154835</v>
+        <v>7.94665095919617</v>
       </c>
       <c r="G10" t="n">
-        <v>18.6978017416406</v>
+        <v>6.80196876816716</v>
       </c>
       <c r="H10" t="n">
-        <v>16.8529074546852</v>
+        <v>6.15428574403878</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
@@ -637,28 +637,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>276.166762970885</v>
+        <v>297.216762939616</v>
       </c>
       <c r="I5" t="n">
-        <v>161.41899700805</v>
+        <v>188.88876163263</v>
       </c>
       <c r="J5" t="n">
-        <v>100.959508575313</v>
+        <v>130.412949014979</v>
       </c>
       <c r="K5" t="n">
-        <v>66.9821020354688</v>
+        <v>96.671736245233</v>
       </c>
       <c r="L5" t="n">
-        <v>45.2686976209134</v>
+        <v>74.9946715363091</v>
       </c>
       <c r="M5" t="n">
-        <v>30.260054230837</v>
+        <v>59.9962744177698</v>
       </c>
       <c r="N5" t="n">
-        <v>19.3476709425518</v>
+        <v>49.0886568390619</v>
       </c>
       <c r="O5" t="n">
-        <v>11.1067743893329</v>
+        <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
@@ -684,28 +684,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>293.1868462847</v>
+        <v>307.224346263849</v>
       </c>
       <c r="I6" t="n">
-        <v>182.016579273066</v>
+        <v>200.100040166797</v>
       </c>
       <c r="J6" t="n">
-        <v>120.254267578413</v>
+        <v>139.771055953038</v>
       </c>
       <c r="K6" t="n">
-        <v>84.2739208470969</v>
+        <v>103.976596989415</v>
       </c>
       <c r="L6" t="n">
-        <v>61.1937751432458</v>
+        <v>80.9258040028391</v>
       </c>
       <c r="M6" t="n">
-        <v>45.377526084738</v>
+        <v>65.1175728470531</v>
       </c>
       <c r="N6" t="n">
-        <v>33.9876014729822</v>
+        <v>53.731219933595</v>
       </c>
       <c r="O6" t="n">
-        <v>25.4488409393044</v>
+        <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
@@ -731,28 +731,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>307.656073605541</v>
+        <v>314.668573595124</v>
       </c>
       <c r="I7" t="n">
-        <v>197.36250145535</v>
+        <v>206.219833547116</v>
       </c>
       <c r="J7" t="n">
-        <v>133.891524453198</v>
+        <v>143.504334912525</v>
       </c>
       <c r="K7" t="n">
-        <v>96.1812803586853</v>
+        <v>105.902653793024</v>
       </c>
       <c r="L7" t="n">
-        <v>72.0802889403447</v>
+        <v>81.8196981772802</v>
       </c>
       <c r="M7" t="n">
-        <v>55.706710379565</v>
+        <v>65.4510274707899</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9959144648564</v>
+        <v>53.7423740102523</v>
       </c>
       <c r="O7" t="n">
-        <v>35.2560581493574</v>
+        <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
@@ -778,28 +778,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>212.375807903736</v>
+        <v>266.000807930288</v>
       </c>
       <c r="I8" t="n">
-        <v>77.5162589672474</v>
+        <v>155.562935242816</v>
       </c>
       <c r="J8" t="n">
-        <v>-14.045689195886</v>
+        <v>72.7835029649257</v>
       </c>
       <c r="K8" t="n">
-        <v>-63.8454676587368</v>
+        <v>24.721654691844</v>
       </c>
       <c r="L8" t="n">
-        <v>-92.347964039085</v>
+        <v>-3.38530595420321</v>
       </c>
       <c r="M8" t="n">
-        <v>-110.433937714629</v>
+        <v>-21.3416730890296</v>
       </c>
       <c r="N8" t="n">
-        <v>-122.871388609178</v>
+        <v>-33.7208561709312</v>
       </c>
       <c r="O8" t="n">
-        <v>-131.938972723872</v>
+        <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
@@ -825,28 +825,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>234.271568667736</v>
+        <v>270.271568685561</v>
       </c>
       <c r="I9" t="n">
-        <v>107.988579265978</v>
+        <v>159.254117451636</v>
       </c>
       <c r="J9" t="n">
-        <v>18.5460497754398</v>
+        <v>75.9090207918885</v>
       </c>
       <c r="K9" t="n">
-        <v>-31.5713942997207</v>
+        <v>27.1105522435488</v>
       </c>
       <c r="L9" t="n">
-        <v>-60.6615492677588</v>
+        <v>-1.66299881454391</v>
       </c>
       <c r="M9" t="n">
-        <v>-79.2647430206882</v>
+        <v>-20.1584247153941</v>
       </c>
       <c r="N9" t="n">
-        <v>-92.1146861106535</v>
+        <v>-32.9580172322294</v>
       </c>
       <c r="O9" t="n">
-        <v>-101.504070488222</v>
+        <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
@@ -872,28 +872,28 @@
         <v>0.00416666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>255.431157304974</v>
+        <v>273.431157313886</v>
       </c>
       <c r="I10" t="n">
-        <v>135.813055843614</v>
+        <v>160.852162605097</v>
       </c>
       <c r="J10" t="n">
-        <v>48.0748494497129</v>
+        <v>76.2284892037397</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.59544164514419</v>
+        <v>26.2981452880862</v>
       </c>
       <c r="L10" t="n">
-        <v>-32.3977568239551</v>
+        <v>-3.31648855059343</v>
       </c>
       <c r="M10" t="n">
-        <v>-51.5410125284338</v>
+        <v>-22.3938021710369</v>
       </c>
       <c r="N10" t="n">
-        <v>-64.7679936149297</v>
+        <v>-35.5887361600515</v>
       </c>
       <c r="O10" t="n">
-        <v>-74.4183693074558</v>
+        <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
@@ -1153,28 +1153,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9462894154569</v>
+        <v>39.9962893841882</v>
       </c>
       <c r="H5" t="n">
-        <v>37.0665969469494</v>
+        <v>64.5363615715299</v>
       </c>
       <c r="I5" t="n">
-        <v>69.9696166610458</v>
+        <v>99.4230571007118</v>
       </c>
       <c r="J5" t="n">
-        <v>89.5753795111941</v>
+        <v>119.265013720958</v>
       </c>
       <c r="K5" t="n">
-        <v>99.0075382039711</v>
+        <v>128.733512119367</v>
       </c>
       <c r="L5" t="n">
-        <v>103.758434079803</v>
+        <v>133.494654266735</v>
       </c>
       <c r="M5" t="n">
-        <v>106.367870576697</v>
+        <v>136.108856473207</v>
       </c>
       <c r="N5" t="n">
-        <v>107.925530574442</v>
+        <v>137.669294341224</v>
       </c>
     </row>
     <row r="6">
@@ -1197,28 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>35.9663727292728</v>
+        <v>50.0038727084208</v>
       </c>
       <c r="H6" t="n">
-        <v>57.6641792119662</v>
+        <v>75.7476401056969</v>
       </c>
       <c r="I6" t="n">
-        <v>89.2643756641462</v>
+        <v>108.781164038771</v>
       </c>
       <c r="J6" t="n">
-        <v>106.867198322822</v>
+        <v>126.56987446514</v>
       </c>
       <c r="K6" t="n">
-        <v>114.932615726303</v>
+        <v>134.664644585897</v>
       </c>
       <c r="L6" t="n">
-        <v>118.875905933704</v>
+        <v>138.615952696019</v>
       </c>
       <c r="M6" t="n">
-        <v>121.007801107127</v>
+        <v>140.75141956774</v>
       </c>
       <c r="N6" t="n">
-        <v>122.267597124414</v>
+        <v>142.01322774245</v>
       </c>
     </row>
     <row r="7">
@@ -1241,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.4356000501135</v>
+        <v>57.4481000396968</v>
       </c>
       <c r="H7" t="n">
-        <v>73.0101013942496</v>
+        <v>81.8674334860162</v>
       </c>
       <c r="I7" t="n">
-        <v>102.901632538931</v>
+        <v>112.514442998258</v>
       </c>
       <c r="J7" t="n">
-        <v>118.774557834411</v>
+        <v>128.49593126875</v>
       </c>
       <c r="K7" t="n">
-        <v>125.819129523402</v>
+        <v>135.558538760338</v>
       </c>
       <c r="L7" t="n">
-        <v>129.205090228531</v>
+        <v>138.949407319755</v>
       </c>
       <c r="M7" t="n">
-        <v>131.016114099001</v>
+        <v>140.762573644397</v>
       </c>
       <c r="N7" t="n">
-        <v>132.074814334467</v>
+        <v>141.8224565217</v>
       </c>
     </row>
     <row r="8">
@@ -1285,28 +1285,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-44.8446656516921</v>
+        <v>8.78033437486027</v>
       </c>
       <c r="H8" t="n">
-        <v>-46.8361410938528</v>
+        <v>31.210535181716</v>
       </c>
       <c r="I8" t="n">
-        <v>-45.0355811101528</v>
+        <v>41.7936110506589</v>
       </c>
       <c r="J8" t="n">
-        <v>-41.2521901830115</v>
+        <v>47.3149321675693</v>
       </c>
       <c r="K8" t="n">
-        <v>-38.6091234560273</v>
+        <v>50.3535346288545</v>
       </c>
       <c r="L8" t="n">
-        <v>-36.9355578656631</v>
+        <v>52.156706759936</v>
       </c>
       <c r="M8" t="n">
-        <v>-35.8511889750334</v>
+        <v>53.2993434632136</v>
       </c>
       <c r="N8" t="n">
-        <v>-35.1202165387623</v>
+        <v>54.0623310393967</v>
       </c>
     </row>
     <row r="9">
@@ -1329,28 +1329,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-22.9489048876922</v>
+        <v>13.0510951301332</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.3638207951224</v>
+        <v>34.9017173905357</v>
       </c>
       <c r="I9" t="n">
-        <v>-12.443842138827</v>
+        <v>44.9191288776217</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.9781168239954</v>
+        <v>49.7038297192741</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.92270868470105</v>
+        <v>52.0758417685138</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.76636317172253</v>
+        <v>53.3399551335716</v>
       </c>
       <c r="M9" t="n">
-        <v>-5.09448647650869</v>
+        <v>54.0621824019155</v>
       </c>
       <c r="N9" t="n">
-        <v>-4.68531430311303</v>
+        <v>54.5000619342742</v>
       </c>
     </row>
     <row r="10">
@@ -1373,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.78931625045402</v>
+        <v>16.2106837584587</v>
       </c>
       <c r="H10" t="n">
-        <v>11.4606557825138</v>
+        <v>36.499762543997</v>
       </c>
       <c r="I10" t="n">
-        <v>17.0849575354461</v>
+        <v>45.2385972894729</v>
       </c>
       <c r="J10" t="n">
-        <v>19.9978358305811</v>
+        <v>48.8914227638114</v>
       </c>
       <c r="K10" t="n">
-        <v>21.3410837591026</v>
+        <v>50.4223520324643</v>
       </c>
       <c r="L10" t="n">
-        <v>21.9573673205318</v>
+        <v>51.1045776779287</v>
       </c>
       <c r="M10" t="n">
-        <v>22.2522060192151</v>
+        <v>51.4314634740933</v>
       </c>
       <c r="N10" t="n">
-        <v>22.4003868776534</v>
+        <v>51.5989135914275</v>
       </c>
     </row>
     <row r="11">
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0736577814105229</v>
+        <v>0.155494190766932</v>
       </c>
       <c r="H5" t="n">
-        <v>0.298077053026213</v>
+        <v>0.518979621943928</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25782060984969</v>
+        <v>3.20824149292823</v>
       </c>
       <c r="J5" t="n">
-        <v>3.96469169236008</v>
+        <v>5.27878320660202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.84238322095816</v>
+        <v>2.39553944079606</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41171049338801</v>
+        <v>1.81629383587854</v>
       </c>
       <c r="M5" t="n">
-        <v>1.22233540056095</v>
+        <v>1.56410646086131</v>
       </c>
       <c r="N5" t="n">
-        <v>1.11471717699097</v>
+        <v>1.42192793799181</v>
       </c>
     </row>
     <row r="6">
@@ -1695,28 +1695,28 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.139827021667941</v>
+        <v>0.19440082671975</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463715852557997</v>
+        <v>0.609136937192032</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88043520484341</v>
+        <v>3.51021437376138</v>
       </c>
       <c r="J6" t="n">
-        <v>4.73004407782991</v>
+        <v>5.60210330710671</v>
       </c>
       <c r="K6" t="n">
-        <v>2.138725258664</v>
+        <v>2.50590900594072</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61739491643198</v>
+        <v>1.88597290145532</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39057140314404</v>
+        <v>1.61745686816963</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26285031890565</v>
+        <v>1.46679458958276</v>
       </c>
     </row>
     <row r="7">
@@ -1739,28 +1739,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.196079259760966</v>
+        <v>0.223341864065566</v>
       </c>
       <c r="H7" t="n">
-        <v>0.587122575506193</v>
+        <v>0.658350248533931</v>
       </c>
       <c r="I7" t="n">
-        <v>3.32049020447076</v>
+        <v>3.6306820078472</v>
       </c>
       <c r="J7" t="n">
-        <v>5.25707516149548</v>
+        <v>5.68735241740861</v>
       </c>
       <c r="K7" t="n">
-        <v>2.34130710968613</v>
+        <v>2.5225430487437</v>
       </c>
       <c r="L7" t="n">
-        <v>1.75793113391123</v>
+        <v>1.89050979906343</v>
       </c>
       <c r="M7" t="n">
-        <v>1.50558278020306</v>
+        <v>1.61758504618697</v>
       </c>
       <c r="N7" t="n">
-        <v>1.36414491921329</v>
+        <v>1.4648241942971</v>
       </c>
     </row>
     <row r="8">
@@ -1783,28 +1783,28 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.174343297918035</v>
+        <v>0.0341354412947546</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.376640427292437</v>
+        <v>0.250984582254792</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.45323453320661</v>
+        <v>1.34862074273381</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.82586126458783</v>
+        <v>2.09420400463835</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.718458437828665</v>
+        <v>0.937004484699089</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.50253567414089</v>
+        <v>0.709630700256449</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.41198697688308</v>
+        <v>0.612493923104034</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.362741868648007</v>
+        <v>0.558386961055708</v>
       </c>
     </row>
     <row r="9">
@@ -1827,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0892188112807706</v>
+        <v>0.0507389437152283</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.131592319787009</v>
+        <v>0.280667822843683</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.401545193292471</v>
+        <v>1.4494767842976</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.397380009768025</v>
+        <v>2.19993888769246</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.12882132568531</v>
+        <v>0.969054062266684</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.078455650091499</v>
+        <v>0.725729672452396</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0585437231576946</v>
+        <v>0.621260151426987</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0483926305989214</v>
+        <v>0.562908098406829</v>
       </c>
     </row>
     <row r="10">
@@ -1871,28 +1871,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006956352368539</v>
+        <v>0.0630225251294605</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0921627228496002</v>
+        <v>0.29351876221177</v>
       </c>
       <c r="I10" t="n">
-        <v>0.551307425747447</v>
+        <v>1.4597855782984</v>
       </c>
       <c r="J10" t="n">
-        <v>0.885123278464898</v>
+        <v>2.16398098134905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.397125868879107</v>
+        <v>0.938285074359438</v>
       </c>
       <c r="L10" t="n">
-        <v>0.298746276661509</v>
+        <v>0.695315703324961</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255713111585231</v>
+        <v>0.591029021886003</v>
       </c>
       <c r="N10" t="n">
-        <v>0.231364125715743</v>
+        <v>0.532943363709143</v>
       </c>
     </row>
     <row r="11">
@@ -2059,158 +2059,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.355129908412178</v>
+        <v>0.749691840674925</v>
       </c>
       <c r="B5" t="n">
-        <v>1.43713365395836</v>
+        <v>2.50218214667003</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8857422940585</v>
+        <v>15.4680535542845</v>
       </c>
       <c r="D5" t="n">
-        <v>19.1151643536905</v>
+        <v>25.4508588337756</v>
       </c>
       <c r="E5" t="n">
-        <v>8.8827734421218</v>
+        <v>11.5497329123482</v>
       </c>
       <c r="F5" t="n">
-        <v>6.80634969749132</v>
+        <v>8.75698739811621</v>
       </c>
       <c r="G5" t="n">
-        <v>5.89330618622406</v>
+        <v>7.54110392080337</v>
       </c>
       <c r="H5" t="n">
-        <v>5.37444111660048</v>
+        <v>6.85561156903928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.824909047155306</v>
+        <v>1.14686702772244</v>
       </c>
       <c r="B6" t="n">
-        <v>2.73569012284935</v>
+        <v>3.59360132578286</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9931178671794</v>
+        <v>20.7084979700619</v>
       </c>
       <c r="D6" t="n">
-        <v>27.904879233653</v>
+        <v>33.0495897431428</v>
       </c>
       <c r="E6" t="n">
-        <v>12.617402517814</v>
+        <v>14.7836018080789</v>
       </c>
       <c r="F6" t="n">
-        <v>9.54181590562793</v>
+        <v>11.1262908309298</v>
       </c>
       <c r="G6" t="n">
-        <v>8.20367134682357</v>
+        <v>9.54218138969722</v>
       </c>
       <c r="H6" t="n">
-        <v>7.45018123708689</v>
+        <v>8.65334978055024</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.4750055835074</v>
+        <v>1.68008843428549</v>
       </c>
       <c r="B7" t="n">
-        <v>4.41662763379769</v>
+        <v>4.95243756874048</v>
       </c>
       <c r="C7" t="n">
-        <v>24.9783765888686</v>
+        <v>27.3117934045799</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5463305276489</v>
+        <v>42.7830897631836</v>
       </c>
       <c r="E7" t="n">
-        <v>17.6124749945638</v>
+        <v>18.9758217471373</v>
       </c>
       <c r="F7" t="n">
-        <v>13.2240311448623</v>
+        <v>14.2213537152955</v>
       </c>
       <c r="G7" t="n">
-        <v>11.3257414881071</v>
+        <v>12.1682781638021</v>
       </c>
       <c r="H7" t="n">
-        <v>10.2617756462655</v>
+        <v>11.0191351603372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.11044467113698</v>
+        <v>0.413213246724821</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.55927352646374</v>
+        <v>3.0381957923395</v>
       </c>
       <c r="C8" t="n">
-        <v>-17.5915628139604</v>
+        <v>16.32520144953</v>
       </c>
       <c r="D8" t="n">
-        <v>-22.1022501128574</v>
+        <v>25.350568301975</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.69701789317852</v>
+        <v>11.342541670253</v>
       </c>
       <c r="F8" t="n">
-        <v>-6.08324924566635</v>
+        <v>8.59015716529303</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.98714737144356</v>
+        <v>7.41430586409123</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.39102995542948</v>
+        <v>6.75933517643115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-1.53333555928617</v>
+        <v>0.872011468459759</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.26157668278491</v>
+        <v>4.82362348181616</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.90105051498804</v>
+        <v>24.9110503022618</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.82946668734784</v>
+        <v>37.8086692294043</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.21395372379551</v>
+        <v>16.6543919518066</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.34835732941598</v>
+        <v>12.4725615285148</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.00614625102101</v>
+        <v>10.6771236701718</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.831687177171783</v>
+        <v>9.67427150739653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.20690541189364</v>
+        <v>1.87450273213043</v>
       </c>
       <c r="B10" t="n">
-        <v>2.74123062234136</v>
+        <v>8.73023923695987</v>
       </c>
       <c r="C10" t="n">
-        <v>16.3977446743767</v>
+        <v>43.4189529731458</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3265554711818</v>
+        <v>64.3641024139303</v>
       </c>
       <c r="E10" t="n">
-        <v>11.8118644831255</v>
+        <v>27.9077668149763</v>
       </c>
       <c r="F10" t="n">
-        <v>8.88572317065116</v>
+        <v>20.6810371831096</v>
       </c>
       <c r="G10" t="n">
-        <v>7.60577151301763</v>
+        <v>17.5791990882288</v>
       </c>
       <c r="H10" t="n">
-        <v>6.88155044375386</v>
+        <v>15.8515354516726</v>
       </c>
     </row>
     <row r="11">
@@ -2359,158 +2359,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.170938389258473</v>
+        <v>0.36085700654774</v>
       </c>
       <c r="B5" t="n">
-        <v>0.691750557014932</v>
+        <v>1.20440147577392</v>
       </c>
       <c r="C5" t="n">
-        <v>5.23974807401886</v>
+        <v>7.44539982947415</v>
       </c>
       <c r="D5" t="n">
-        <v>9.20090177602964</v>
+        <v>12.2505277962705</v>
       </c>
       <c r="E5" t="n">
-        <v>4.2756381492429</v>
+        <v>5.55935361577864</v>
       </c>
       <c r="F5" t="n">
-        <v>3.2761714135006</v>
+        <v>4.21509223845311</v>
       </c>
       <c r="G5" t="n">
-        <v>2.83668664062763</v>
+        <v>3.62983834061294</v>
       </c>
       <c r="H5" t="n">
-        <v>2.58693589549749</v>
+        <v>3.29988314482708</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.324498042175797</v>
+        <v>0.451148046460741</v>
       </c>
       <c r="B6" t="n">
-        <v>1.07615026399043</v>
+        <v>1.41363050702163</v>
       </c>
       <c r="C6" t="n">
-        <v>6.68465632347964</v>
+        <v>8.14619147512077</v>
       </c>
       <c r="D6" t="n">
-        <v>10.9770631195025</v>
+        <v>13.0008601594886</v>
       </c>
       <c r="E6" t="n">
-        <v>4.96336223792653</v>
+        <v>5.8154894282848</v>
       </c>
       <c r="F6" t="n">
-        <v>3.75350542081665</v>
+        <v>4.37679717996292</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2271137040842</v>
+        <v>3.75364919286684</v>
       </c>
       <c r="H6" t="n">
-        <v>2.93071003842972</v>
+        <v>3.40400565581656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.453924659547153</v>
+        <v>0.517037751632569</v>
       </c>
       <c r="B7" t="n">
-        <v>1.35919227522579</v>
+        <v>1.52408476446135</v>
       </c>
       <c r="C7" t="n">
-        <v>7.68695469083007</v>
+        <v>8.40505057161631</v>
       </c>
       <c r="D7" t="n">
-        <v>12.1701604535059</v>
+        <v>13.1662548754216</v>
       </c>
       <c r="E7" t="n">
-        <v>5.42013996766002</v>
+        <v>5.83970225096681</v>
       </c>
       <c r="F7" t="n">
-        <v>4.06962109322921</v>
+        <v>4.37654149631411</v>
       </c>
       <c r="G7" t="n">
-        <v>3.48543314451955</v>
+        <v>3.74471906041515</v>
       </c>
       <c r="H7" t="n">
-        <v>3.15800365006344</v>
+        <v>3.39107677427652</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-176.09926679231</v>
+        <v>34.4792501657523</v>
       </c>
       <c r="B8" t="n">
-        <v>-380.433913334154</v>
+        <v>253.512474749802</v>
       </c>
       <c r="C8" t="n">
-        <v>-1467.87137120271</v>
+        <v>1362.20392072643</v>
       </c>
       <c r="D8" t="n">
-        <v>-1844.25116306771</v>
+        <v>2115.29662530367</v>
       </c>
       <c r="E8" t="n">
-        <v>-725.694681890541</v>
+        <v>946.441903457572</v>
       </c>
       <c r="F8" t="n">
-        <v>-507.597164961253</v>
+        <v>716.778032197285</v>
       </c>
       <c r="G8" t="n">
-        <v>-416.136469961691</v>
+        <v>618.662902798102</v>
       </c>
       <c r="H8" t="n">
-        <v>-366.395369748128</v>
+        <v>564.010980648796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-50.2919895963735</v>
+        <v>28.6011704575044</v>
       </c>
       <c r="B9" t="n">
-        <v>-74.1776255779067</v>
+        <v>158.210393344857</v>
       </c>
       <c r="C9" t="n">
-        <v>-226.348080563266</v>
+        <v>817.059432978473</v>
       </c>
       <c r="D9" t="n">
-        <v>-224.000197157611</v>
+        <v>1240.08941684177</v>
       </c>
       <c r="E9" t="n">
-        <v>-72.6156365249962</v>
+        <v>546.248667945922</v>
       </c>
       <c r="F9" t="n">
-        <v>-44.2248745700203</v>
+        <v>409.088493926414</v>
       </c>
       <c r="G9" t="n">
-        <v>-33.0006673896846</v>
+        <v>350.199791094298</v>
       </c>
       <c r="H9" t="n">
-        <v>-27.278570961488</v>
+        <v>317.307166755451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.31790842443315</v>
+        <v>39.11899193265</v>
       </c>
       <c r="B10" t="n">
-        <v>57.2067336914627</v>
+        <v>182.191336628564</v>
       </c>
       <c r="C10" t="n">
-        <v>342.204484760368</v>
+        <v>906.110000250678</v>
       </c>
       <c r="D10" t="n">
-        <v>549.408807700775</v>
+        <v>1343.2142615344</v>
       </c>
       <c r="E10" t="n">
-        <v>246.501764710572</v>
+        <v>582.407102523963</v>
       </c>
       <c r="F10" t="n">
-        <v>185.436130377578</v>
+        <v>431.592503365103</v>
       </c>
       <c r="G10" t="n">
-        <v>158.724823047424</v>
+        <v>366.860253403472</v>
       </c>
       <c r="H10" t="n">
-        <v>143.611055710427</v>
+        <v>330.805646118924</v>
       </c>
     </row>
     <row r="11">
@@ -2659,158 +2659,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.104205045864926</v>
+        <v>0.219980550191848</v>
       </c>
       <c r="B5" t="n">
-        <v>0.421695201607593</v>
+        <v>0.734210212037461</v>
       </c>
       <c r="C5" t="n">
-        <v>3.1941811944196</v>
+        <v>4.53875945642566</v>
       </c>
       <c r="D5" t="n">
-        <v>5.60892375158684</v>
+        <v>7.46799368133535</v>
       </c>
       <c r="E5" t="n">
-        <v>2.60645412289445</v>
+        <v>3.38901460944262</v>
       </c>
       <c r="F5" t="n">
-        <v>1.99717333178432</v>
+        <v>2.56954498014335</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72926083352791</v>
+        <v>2.21277076733124</v>
       </c>
       <c r="H5" t="n">
-        <v>1.57701131272697</v>
+        <v>2.01162814243938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.197879317951553</v>
+        <v>0.275110651300828</v>
       </c>
       <c r="B6" t="n">
-        <v>0.656237796764412</v>
+        <v>0.862033677273791</v>
       </c>
       <c r="C6" t="n">
-        <v>4.07631190980833</v>
+        <v>4.96755790016869</v>
       </c>
       <c r="D6" t="n">
-        <v>6.69382702167904</v>
+        <v>7.92794102514003</v>
       </c>
       <c r="E6" t="n">
-        <v>3.02666459187854</v>
+        <v>3.5462928340259</v>
       </c>
       <c r="F6" t="n">
-        <v>2.28889236932984</v>
+        <v>2.66897647510041</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96789803240274</v>
+        <v>2.28898004170852</v>
       </c>
       <c r="H6" t="n">
-        <v>1.78715070090952</v>
+        <v>2.0757669690694</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.277192465612773</v>
+        <v>0.315732944169403</v>
       </c>
       <c r="B7" t="n">
-        <v>0.830000860467759</v>
+        <v>0.930693684025377</v>
       </c>
       <c r="C7" t="n">
-        <v>4.69409598925639</v>
+        <v>5.13260657367824</v>
       </c>
       <c r="D7" t="n">
-        <v>7.43179889450343</v>
+        <v>8.04007135335021</v>
       </c>
       <c r="E7" t="n">
-        <v>3.30984873811631</v>
+        <v>3.56605756339572</v>
       </c>
       <c r="F7" t="n">
-        <v>2.48514435427972</v>
+        <v>2.67256757857172</v>
       </c>
       <c r="G7" t="n">
-        <v>2.1284056433984</v>
+        <v>2.28674051420596</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9284583900961</v>
+        <v>2.07078622492479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.3930059590349</v>
+        <v>0.272742765025784</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.00936351380983</v>
+        <v>2.00537114349631</v>
       </c>
       <c r="C8" t="n">
-        <v>-11.6113689990184</v>
+        <v>10.775503007804</v>
       </c>
       <c r="D8" t="n">
-        <v>-14.5886630132326</v>
+        <v>16.7327261370693</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.74049531680162</v>
+        <v>7.48668200277992</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.01526870872311</v>
+        <v>5.66996154125796</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.29178305502005</v>
+        <v>4.89383701550548</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.89831379039122</v>
+        <v>4.46152145500697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.703461426131268</v>
+        <v>0.400060135232955</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.03756281457253</v>
+        <v>2.21297486586587</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.16605377582024</v>
+        <v>11.4286549124413</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.13321265296573</v>
+        <v>17.3458054991069</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.01571442369397</v>
+        <v>7.64067737346491</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.618597386684941</v>
+        <v>5.72214338030722</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.461598292919895</v>
+        <v>4.89843504803062</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.381560216356504</v>
+        <v>4.43834801205712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0562380027003177</v>
+        <v>0.509499914702542</v>
       </c>
       <c r="B10" t="n">
-        <v>0.745081212378696</v>
+        <v>2.37292593407345</v>
       </c>
       <c r="C10" t="n">
-        <v>4.45699511113204</v>
+        <v>11.8015047175467</v>
       </c>
       <c r="D10" t="n">
-        <v>7.15569923535623</v>
+        <v>17.4945088783799</v>
       </c>
       <c r="E10" t="n">
-        <v>3.21052823422167</v>
+        <v>7.58548097479085</v>
       </c>
       <c r="F10" t="n">
-        <v>2.41518730269962</v>
+        <v>5.62121703006472</v>
       </c>
       <c r="G10" t="n">
-        <v>2.06728956469713</v>
+        <v>4.77812076902769</v>
       </c>
       <c r="H10" t="n">
-        <v>1.87044238667445</v>
+        <v>4.30853250950052</v>
       </c>
     </row>
     <row r="11">
@@ -2959,158 +2959,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0974437826113493</v>
+        <v>0.205707283497625</v>
       </c>
       <c r="B5" t="n">
-        <v>0.394333836837073</v>
+        <v>0.686571554179333</v>
       </c>
       <c r="C5" t="n">
-        <v>2.98692923501747</v>
+        <v>4.24426558355377</v>
       </c>
       <c r="D5" t="n">
-        <v>5.24499310179013</v>
+        <v>6.9834387268564</v>
       </c>
       <c r="E5" t="n">
-        <v>2.4373363768488</v>
+        <v>3.16912103562892</v>
       </c>
       <c r="F5" t="n">
-        <v>1.86758829540594</v>
+        <v>2.40282205508293</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61705909096798</v>
+        <v>2.06919685923913</v>
       </c>
       <c r="H5" t="n">
-        <v>1.47468816176327</v>
+        <v>1.88110521692801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.184980780600279</v>
+        <v>0.257177877687742</v>
       </c>
       <c r="B6" t="n">
-        <v>0.613461685443088</v>
+        <v>0.805842996512025</v>
       </c>
       <c r="C6" t="n">
-        <v>3.81060217334675</v>
+        <v>4.64375331167891</v>
       </c>
       <c r="D6" t="n">
-        <v>6.25749755200081</v>
+        <v>7.41116724357435</v>
       </c>
       <c r="E6" t="n">
-        <v>2.82937491707948</v>
+        <v>3.31513178570737</v>
       </c>
       <c r="F6" t="n">
-        <v>2.13969353427991</v>
+        <v>2.49500229169342</v>
       </c>
       <c r="G6" t="n">
-        <v>1.83962284661167</v>
+        <v>2.13977549183471</v>
       </c>
       <c r="H6" t="n">
-        <v>1.67065732349814</v>
+        <v>1.94046046983416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.25902082234162</v>
+        <v>0.295034739340083</v>
       </c>
       <c r="B7" t="n">
-        <v>0.775589282152205</v>
+        <v>0.869681081884702</v>
       </c>
       <c r="C7" t="n">
-        <v>4.38636959557987</v>
+        <v>4.79613315798897</v>
       </c>
       <c r="D7" t="n">
-        <v>6.94459951094397</v>
+        <v>7.51299602976693</v>
       </c>
       <c r="E7" t="n">
-        <v>3.09286812712615</v>
+        <v>3.33228091371957</v>
       </c>
       <c r="F7" t="n">
-        <v>2.32222810551567</v>
+        <v>2.49736460345298</v>
       </c>
       <c r="G7" t="n">
-        <v>1.98887577557661</v>
+        <v>2.13683083759919</v>
       </c>
       <c r="H7" t="n">
-        <v>1.80203627450713</v>
+        <v>1.93503365860966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.30624928162097</v>
+        <v>0.25575629348282</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.82193977890368</v>
+        <v>1.88047624533518</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.8882107181451</v>
+        <v>10.1044026206466</v>
       </c>
       <c r="D8" t="n">
-        <v>-13.6800782920184</v>
+        <v>15.6906087546461</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.38297617112548</v>
+        <v>7.02041001650223</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.7651970059902</v>
+        <v>5.31683525260582</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.08677017710037</v>
+        <v>4.58904791068017</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.7178062534877</v>
+        <v>4.1836570459304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.659233201182557</v>
+        <v>0.374907441713704</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.972328873013422</v>
+        <v>2.07384008670443</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.96699675094996</v>
+        <v>10.7101093013358</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.9362204244229</v>
+        <v>16.255235129456</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.95185414032087</v>
+        <v>7.16029055326267</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.579704757530488</v>
+        <v>5.36237916977354</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.43257655501526</v>
+        <v>4.59045925980236</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.357570654948278</v>
+        <v>4.15929894556105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0526703190645838</v>
+        <v>0.477177740713211</v>
       </c>
       <c r="B10" t="n">
-        <v>0.69781399233069</v>
+        <v>2.22238984428883</v>
       </c>
       <c r="C10" t="n">
-        <v>4.17424772041715</v>
+        <v>11.0528288536084</v>
       </c>
       <c r="D10" t="n">
-        <v>6.70174870656069</v>
+        <v>16.3846744240306</v>
       </c>
       <c r="E10" t="n">
-        <v>3.00685547748578</v>
+        <v>7.10426551471941</v>
       </c>
       <c r="F10" t="n">
-        <v>2.26197019321246</v>
+        <v>5.26461254469673</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93614274588858</v>
+        <v>4.47500148209177</v>
       </c>
       <c r="H10" t="n">
-        <v>1.75178335943123</v>
+        <v>4.03520344036404</v>
       </c>
     </row>
     <row r="11">
@@ -3259,158 +3259,158 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.95929698551992</v>
+        <v>4.1361454744004</v>
       </c>
       <c r="B5" t="n">
-        <v>7.92884961049728</v>
+        <v>13.8048579437085</v>
       </c>
       <c r="C5" t="n">
-        <v>60.0580282220019</v>
+        <v>85.3392237118912</v>
       </c>
       <c r="D5" t="n">
-        <v>105.460799016779</v>
+        <v>140.415633295614</v>
       </c>
       <c r="E5" t="n">
-        <v>49.0073936774873</v>
+        <v>63.7213491251755</v>
       </c>
       <c r="F5" t="n">
-        <v>37.5514991241212</v>
+        <v>48.3134160343692</v>
       </c>
       <c r="G5" t="n">
-        <v>32.5141216549215</v>
+        <v>41.6052318589109</v>
       </c>
       <c r="H5" t="n">
-        <v>29.6514769079599</v>
+        <v>37.8232831505822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.71939877636724</v>
+        <v>5.17106199074538</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3348416780428</v>
+        <v>16.2030425293081</v>
       </c>
       <c r="C6" t="n">
-        <v>76.6195764488349</v>
+        <v>93.371702342053</v>
       </c>
       <c r="D6" t="n">
-        <v>125.819172470276</v>
+        <v>149.015947969039</v>
       </c>
       <c r="E6" t="n">
-        <v>56.8900918804626</v>
+        <v>66.6571795580233</v>
       </c>
       <c r="F6" t="n">
-        <v>43.0227047770908</v>
+        <v>50.1668791787116</v>
       </c>
       <c r="G6" t="n">
-        <v>36.9891993236315</v>
+        <v>43.0243526933123</v>
       </c>
       <c r="H6" t="n">
-        <v>33.5918184828904</v>
+        <v>39.0167360829014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.51963538705215</v>
+        <v>7.42611698018009</v>
       </c>
       <c r="B7" t="n">
-        <v>19.521825635581</v>
+        <v>21.8901457637533</v>
       </c>
       <c r="C7" t="n">
-        <v>110.406299298653</v>
+        <v>120.72017676092</v>
       </c>
       <c r="D7" t="n">
-        <v>174.797749119725</v>
+        <v>189.104467878837</v>
       </c>
       <c r="E7" t="n">
-        <v>77.848461397064</v>
+        <v>83.8745563707283</v>
       </c>
       <c r="F7" t="n">
-        <v>58.4512102025487</v>
+        <v>62.8594508188592</v>
       </c>
       <c r="G7" t="n">
-        <v>50.060627441752</v>
+        <v>53.7847027857168</v>
       </c>
       <c r="H7" t="n">
-        <v>45.3578185638419</v>
+        <v>48.7054044603789</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.63753172461976</v>
+        <v>0.908002738440475</v>
       </c>
       <c r="B8" t="n">
-        <v>-10.0186353659789</v>
+        <v>6.67618988797749</v>
       </c>
       <c r="C8" t="n">
-        <v>-38.656038583296</v>
+        <v>35.8733117567193</v>
       </c>
       <c r="D8" t="n">
-        <v>-48.5679096380365</v>
+        <v>55.7058265233803</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.1109944462426</v>
+        <v>24.9243192929959</v>
       </c>
       <c r="F8" t="n">
-        <v>-13.3674489321477</v>
+        <v>18.8761766268216</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.95885358509</v>
+        <v>16.2923383545674</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.64893370603703</v>
+        <v>14.8530931640819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.96652547508563</v>
+        <v>1.68706987853135</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.37544463291807</v>
+        <v>9.33220510955249</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.3513776769747</v>
+        <v>48.1951030778954</v>
       </c>
       <c r="D9" t="n">
-        <v>-13.2128853247869</v>
+        <v>73.1479680157745</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.28330907903658</v>
+        <v>32.2210475703674</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.60865036554235</v>
+        <v>24.1305116090422</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.94657879499335</v>
+        <v>20.6569000349474</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.60905496741414</v>
+        <v>18.7166942720271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.185038973003138</v>
+        <v>1.67639916844366</v>
       </c>
       <c r="B10" t="n">
-        <v>2.45152842779937</v>
+        <v>7.80759907483312</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6647775248821</v>
+        <v>38.8302963827376</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5442792071664</v>
+        <v>57.561894103885</v>
       </c>
       <c r="E10" t="n">
-        <v>10.5635481121843</v>
+        <v>24.9583829779611</v>
       </c>
       <c r="F10" t="n">
-        <v>7.94665095919617</v>
+        <v>18.495397708444</v>
       </c>
       <c r="G10" t="n">
-        <v>6.80196876816716</v>
+        <v>15.7213719821677</v>
       </c>
       <c r="H10" t="n">
-        <v>6.15428574403878</v>
+        <v>14.1762934746633</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t xml:space="preserve">p_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_median</t>
   </si>
   <si>
     <t xml:space="preserve">n_viol</t>
@@ -472,10 +478,16 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="n">
         <v>2.97956793420179</v>
@@ -490,39 +502,45 @@
         <v>32.5291804225073</v>
       </c>
       <c r="F2" t="n">
+        <v>0.00545398167644467</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.00545398167644467</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.591666666666667</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>305.958941322087</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>219.986816410931</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>172.032128026305</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>143.781143146268</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>125.127863454262</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>111.924950718939</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>102.155619670662</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>94.6778620376612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>2.83903899269778</v>
@@ -537,39 +555,45 @@
         <v>32.5291804225073</v>
       </c>
       <c r="F3" t="n">
+        <v>0.00544814359634375</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00544814359634375</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.5875</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>320.230815000711</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>234.886769975759</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>184.516741111159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>153.477532364993</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>132.784947783905</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>118.233936086707</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>107.566109931883</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>99.4651339154544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>2.69710756982452</v>
@@ -584,39 +608,45 @@
         <v>32.5494413332251</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00543404060342086</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.00543404060342086</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>330.83460335654</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>242.607747121165</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>188.575514578095</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>154.598681934824</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>132.033821271404</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>116.341275831496</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>104.956497497692</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>96.383767415995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>2.79313868791015</v>
@@ -631,39 +661,45 @@
         <v>32.2124520454627</v>
       </c>
       <c r="F5" t="n">
+        <v>0.00539084929368777</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00539084929368777</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.575</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>297.216762939616</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>188.88876163263</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>130.412949014979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>96.671736245233</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74.9946715363091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>59.9962744177698</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>49.0886568390619</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>40.8505381561145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>2.70545235579779</v>
@@ -678,39 +714,45 @@
         <v>32.2124520454627</v>
       </c>
       <c r="F6" t="n">
+        <v>0.00537313138556066</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.00537313138556066</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.575</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>307.224346263849</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>200.100040166797</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>139.771055953038</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>103.976596989415</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>80.9258040028391</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>65.1175728470531</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>53.731219933595</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>45.194471557341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="n">
         <v>2.62085067225638</v>
@@ -725,39 +767,45 @@
         <v>32.2326621322508</v>
       </c>
       <c r="F7" t="n">
+        <v>0.00537303988924342</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00537303988924342</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>314.668573595124</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>206.219833547116</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>143.504334912525</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>105.902653793024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>81.8196981772802</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>65.4510274707899</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>53.7423740102523</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>45.0037003365912</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="n">
         <v>2.50443274473967</v>
@@ -772,39 +820,45 @@
         <v>20.7937799475635</v>
       </c>
       <c r="F8" t="n">
+        <v>0.00510042288601572</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00510042288601572</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.575</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>266.000807930288</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>155.562935242816</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>72.7835029649257</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>24.721654691844</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-3.38530595420321</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-21.3416730890296</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>-33.7208561709312</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-42.7564251457126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="n">
         <v>2.44793280405008</v>
@@ -819,39 +873,45 @@
         <v>20.8280604066481</v>
       </c>
       <c r="F9" t="n">
+        <v>0.0050991551276771</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0050991551276771</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.570833333333333</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>270.271568685561</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>159.254117451636</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>75.9090207918885</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>27.1105522435488</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-1.66299881454391</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-20.1584247153941</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>-32.9580172322294</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-42.318694250835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="n">
         <v>2.39110548620252</v>
@@ -866,39 +926,45 @@
         <v>20.7681856250264</v>
       </c>
       <c r="F10" t="n">
+        <v>0.00509715231022753</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.00509715231022753</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.575</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>273.431157313886</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>160.852162605097</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>76.2284892037397</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>26.2981452880862</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-3.31648855059343</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-22.3938021710369</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>-35.5887361600515</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-45.2198425936817</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n">
         <v>2.31332920688603</v>
@@ -913,33 +979,39 @@
         <v>18.3452628994983</v>
       </c>
       <c r="F11" t="n">
+        <v>0.0050618754419589</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0050618754419589</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.554166666666667</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>0.00416666666666667</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>257.220473555428</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>124.3524000611</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>30.9898919142668</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-22.5932774757253</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-53.7388405830577</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-73.4983798489656</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>-87.0201996341448</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-96.8187561851092</v>
       </c>
     </row>
@@ -1000,6 +1072,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1015,33 +1093,39 @@
         <v>14.183917523009</v>
       </c>
       <c r="E2" t="n">
+        <v>0.000392106234485768</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000392106234485768</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0375</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>48.7384677666593</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>95.6344163498311</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>141.042236112038</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>166.374420621993</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>178.86670403732</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>185.423330567905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>189.175819304807</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>191.49661822277</v>
       </c>
     </row>
@@ -1059,33 +1143,39 @@
         <v>14.183917523009</v>
       </c>
       <c r="E3" t="n">
+        <v>0.000386268154384848</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000386268154384848</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0333333333333333</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>63.0103414452833</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>110.534369914659</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>153.526849196892</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>176.070809840718</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>186.523788366962</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>191.732315935673</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>194.586309566028</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>196.283890100564</v>
       </c>
     </row>
@@ -1103,33 +1193,39 @@
         <v>14.2041784337268</v>
       </c>
       <c r="E4" t="n">
+        <v>0.000372165161461955</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000372165161461955</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0291666666666667</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>73.6141298011119</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>118.255347060064</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>157.585622663829</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>177.191959410549</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>185.772661854462</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>189.839655680462</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>191.976697131837</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>193.202523601104</v>
       </c>
     </row>
@@ -1147,33 +1243,39 @@
         <v>13.8671891459644</v>
       </c>
       <c r="E5" t="n">
+        <v>0.00032897385172887</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.00032897385172887</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>39.9962893841882</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>64.5363615715299</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>99.4230571007118</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>119.265013720958</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>128.733512119367</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>133.494654266735</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>136.108856473207</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>137.669294341224</v>
       </c>
     </row>
@@ -1191,33 +1293,39 @@
         <v>13.8671891459644</v>
       </c>
       <c r="E6" t="n">
+        <v>0.000311255943601763</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.000311255943601763</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>50.0038727084208</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>75.7476401056969</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>108.781164038771</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>126.56987446514</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>134.664644585897</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>138.615952696019</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>140.75141956774</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>142.01322774245</v>
       </c>
     </row>
@@ -1235,33 +1343,39 @@
         <v>13.8873992327525</v>
       </c>
       <c r="E7" t="n">
+        <v>0.000311164447284515</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.000311164447284515</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>57.4481000396968</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>81.8674334860162</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>112.514442998258</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.49593126875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>135.558538760338</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>138.949407319755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>140.762573644397</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>141.8224565217</v>
       </c>
     </row>
@@ -1279,33 +1393,39 @@
         <v>2.44851704806524</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0000385474440568138</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0000385474440568138</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.78033437486027</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>31.210535181716</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>41.7936110506589</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>47.3149321675693</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>50.3535346288545</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>52.156706759936</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>53.2993434632136</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>54.0623310393967</v>
       </c>
     </row>
@@ -1323,33 +1443,39 @@
         <v>2.48279750714984</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0000372796857182013</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0000372796857182013</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0166666666666666</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.0510951301332</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>34.9017173905357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>44.9191288776217</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>49.7038297192741</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>52.0758417685138</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>53.3399551335716</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>54.0621824019155</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>54.5000619342742</v>
       </c>
     </row>
@@ -1367,33 +1493,39 @@
         <v>2.42292272552809</v>
       </c>
       <c r="E10" t="n">
+        <v>0.0000352768682686288</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000352768682686288</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0208333333333333</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>16.2106837584587</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>36.499762543997</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>45.2385972894729</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>48.8914227638114</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>50.4223520324643</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>51.1045776779287</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>51.4314634740933</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>51.5989135914275</v>
       </c>
     </row>
@@ -1438,6 +1570,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1498,6 +1636,12 @@
       <c r="N1" t="s">
         <v>14</v>
       </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1513,33 +1657,39 @@
         <v>0.773165127189151</v>
       </c>
       <c r="E2" t="n">
+        <v>0.0774626398815587</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0774626398815587</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.0676691729323308</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.189481292421914</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.769059674785861</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>4.55123356035671</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>7.36389046700948</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>3.3284436749406</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>2.52282201252514</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>2.17392996224038</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>1.97788760946944</v>
       </c>
     </row>
@@ -1557,33 +1707,39 @@
         <v>0.773165127189151</v>
       </c>
       <c r="E3" t="n">
+        <v>0.0763092965865959</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0763092965865959</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.0601503759398496</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.244966275717961</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.888880068742929</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>4.95409437443739</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7.79306189772123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.47093064054248</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>2.60866044026644</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>2.23610506967484</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>2.02733331675203</v>
       </c>
     </row>
@@ -1601,33 +1757,39 @@
         <v>0.774269549122423</v>
       </c>
       <c r="E4" t="n">
+        <v>0.0735231764845502</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0735231764845502</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.0526315789473684</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.286190787162395</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.950969559107504</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>5.08506525610956</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7.8426850465112</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>3.45695329186225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>2.58290939297669</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>2.20611648719442</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>1.99550718490658</v>
       </c>
     </row>
@@ -1645,33 +1807,39 @@
         <v>0.755900268201863</v>
       </c>
       <c r="E5" t="n">
+        <v>0.064990507076081</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.064990507076081</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.0375939849624059</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.155494190766932</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.518979621943928</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>3.20824149292823</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>5.27878320660202</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>2.39553944079606</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.81629383587854</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.56410646086131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>1.42192793799181</v>
       </c>
     </row>
@@ -1689,33 +1857,39 @@
         <v>0.755900268201863</v>
       </c>
       <c r="E6" t="n">
+        <v>0.0614902415459892</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0614902415459892</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.0375939849624059</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.19440082671975</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.609136937192032</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>3.51021437376138</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>5.60210330710671</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2.50590900594072</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.88597290145532</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.61745686816963</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>1.46679458958276</v>
       </c>
     </row>
@@ -1733,33 +1907,39 @@
         <v>0.757001919723502</v>
       </c>
       <c r="E7" t="n">
+        <v>0.0614721659693975</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0614721659693975</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.0300751879699247</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.223341864065566</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.658350248533931</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>3.6306820078472</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>5.68735241740861</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>2.5225430487437</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.89050979906343</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.61758504618697</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.4648241942971</v>
       </c>
     </row>
@@ -1777,33 +1957,39 @@
         <v>0.133468626831846</v>
       </c>
       <c r="E8" t="n">
+        <v>0.00761524942658333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00761524942658333</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.0375939849624059</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.0341354412947546</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.250984582254792</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>1.34862074273381</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2.09420400463835</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.937004484699089</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.709630700256449</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.612493923104034</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.558386961055708</v>
       </c>
     </row>
@@ -1821,33 +2007,39 @@
         <v>0.135337254132114</v>
       </c>
       <c r="E9" t="n">
+        <v>0.00736479712819136</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00736479712819136</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.0300751879699247</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.0507389437152283</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.280667822843683</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>1.4494767842976</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2.19993888769246</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.969054062266684</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.725729672452396</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.621260151426987</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.562908098406829</v>
       </c>
     </row>
@@ -1865,33 +2057,39 @@
         <v>0.132073480701896</v>
       </c>
       <c r="E10" t="n">
+        <v>0.00696913005330232</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00696913005330232</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.0375939849624059</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0630225251294605</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.29351876221177</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.4597855782984</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2.16398098134905</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.938285074359438</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.695315703324961</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.591029021886003</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.532943363709143</v>
       </c>
     </row>
@@ -1936,6 +2134,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1955,28 +2159,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2255,28 +2459,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2555,28 +2759,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -2855,28 +3059,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -3155,262 +3359,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.80011243245718</v>
+        <v>2.44609908352767</v>
       </c>
       <c r="B2" t="n">
-        <v>11.3649929718355</v>
+        <v>9.92813665996618</v>
       </c>
       <c r="C2" t="n">
-        <v>67.2571181697159</v>
+        <v>58.7539175958321</v>
       </c>
       <c r="D2" t="n">
-        <v>108.821936901362</v>
+        <v>95.0637685246585</v>
       </c>
       <c r="E2" t="n">
-        <v>49.1870009741222</v>
+        <v>42.9683739158623</v>
       </c>
       <c r="F2" t="n">
-        <v>37.2817030739827</v>
+        <v>32.5682421407606</v>
       </c>
       <c r="G2" t="n">
-        <v>32.1258538864412</v>
+        <v>28.0642380064034</v>
       </c>
       <c r="H2" t="n">
-        <v>29.2287835621596</v>
+        <v>25.5334392488257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.0725643338111</v>
+        <v>3.21017604244291</v>
       </c>
       <c r="B3" t="n">
-        <v>14.7776311428512</v>
+        <v>11.6483850396161</v>
       </c>
       <c r="C3" t="n">
-        <v>82.3618189750216</v>
+        <v>64.9212428372403</v>
       </c>
       <c r="D3" t="n">
-        <v>129.559654049616</v>
+        <v>102.124672173824</v>
       </c>
       <c r="E3" t="n">
-        <v>57.7042218990187</v>
+        <v>45.4850299478735</v>
       </c>
       <c r="F3" t="n">
-        <v>43.3689798194296</v>
+        <v>34.1853556113721</v>
       </c>
       <c r="G3" t="n">
-        <v>37.1752467833443</v>
+        <v>29.3031802113037</v>
       </c>
       <c r="H3" t="n">
-        <v>33.7044163910025</v>
+        <v>26.5673175803869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.43762495608551</v>
+        <v>3.89252479077171</v>
       </c>
       <c r="B4" t="n">
-        <v>18.0684216230426</v>
+        <v>12.9342828285899</v>
       </c>
       <c r="C4" t="n">
-        <v>96.6162398660815</v>
+        <v>69.1627524713667</v>
       </c>
       <c r="D4" t="n">
-        <v>149.011015883713</v>
+        <v>106.669562191172</v>
       </c>
       <c r="E4" t="n">
-        <v>65.6821125453827</v>
+        <v>47.0185519336025</v>
       </c>
       <c r="F4" t="n">
-        <v>49.0752784665571</v>
+        <v>35.1305468081816</v>
       </c>
       <c r="G4" t="n">
-        <v>41.916213256694</v>
+        <v>30.0057287059408</v>
       </c>
       <c r="H4" t="n">
-        <v>37.9146365132251</v>
+        <v>27.1411992832751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.1361454744004</v>
+        <v>2.39256774200735</v>
       </c>
       <c r="B5" t="n">
-        <v>13.8048579437085</v>
+        <v>7.98546811361828</v>
       </c>
       <c r="C5" t="n">
-        <v>85.3392237118912</v>
+        <v>49.3647709068112</v>
       </c>
       <c r="D5" t="n">
-        <v>140.415633295614</v>
+        <v>81.223911677169</v>
       </c>
       <c r="E5" t="n">
-        <v>63.7213491251755</v>
+        <v>36.8598361294786</v>
       </c>
       <c r="F5" t="n">
-        <v>48.3134160343692</v>
+        <v>27.9470636188805</v>
       </c>
       <c r="G5" t="n">
-        <v>41.6052318589109</v>
+        <v>24.0666911404506</v>
       </c>
       <c r="H5" t="n">
-        <v>37.8232831505822</v>
+        <v>21.8790097502583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.17106199074538</v>
+        <v>3.1614906988836</v>
       </c>
       <c r="B6" t="n">
-        <v>16.2030425293081</v>
+        <v>9.90623750821426</v>
       </c>
       <c r="C6" t="n">
-        <v>93.371702342053</v>
+        <v>57.085714505383</v>
       </c>
       <c r="D6" t="n">
-        <v>149.015947969039</v>
+        <v>91.1055667738244</v>
       </c>
       <c r="E6" t="n">
-        <v>66.6571795580233</v>
+        <v>40.7529543377468</v>
       </c>
       <c r="F6" t="n">
-        <v>50.1668791787116</v>
+        <v>30.6710927463959</v>
       </c>
       <c r="G6" t="n">
-        <v>43.0243526933123</v>
+        <v>26.3042854850378</v>
       </c>
       <c r="H6" t="n">
-        <v>39.0167360829014</v>
+        <v>23.8541035569965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.42611698018009</v>
+        <v>3.63321936918168</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8901457637533</v>
+        <v>10.7097291620028</v>
       </c>
       <c r="C7" t="n">
-        <v>120.72017676092</v>
+        <v>59.062210523941</v>
       </c>
       <c r="D7" t="n">
-        <v>189.104467878837</v>
+        <v>92.5191479382706</v>
       </c>
       <c r="E7" t="n">
-        <v>83.8745563707283</v>
+        <v>41.0355322439669</v>
       </c>
       <c r="F7" t="n">
-        <v>62.8594508188592</v>
+        <v>30.753915520149</v>
       </c>
       <c r="G7" t="n">
-        <v>53.7847027857168</v>
+        <v>26.3141052650112</v>
       </c>
       <c r="H7" t="n">
-        <v>48.7054044603789</v>
+        <v>23.8290642796991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.908002738440475</v>
+        <v>4.4825112590002</v>
       </c>
       <c r="B8" t="n">
-        <v>6.67618988797749</v>
+        <v>32.958156482525</v>
       </c>
       <c r="C8" t="n">
-        <v>35.8733117567193</v>
+        <v>177.094756479812</v>
       </c>
       <c r="D8" t="n">
-        <v>55.7058265233803</v>
+        <v>275.001367299657</v>
       </c>
       <c r="E8" t="n">
-        <v>24.9243192929959</v>
+        <v>123.043177210741</v>
       </c>
       <c r="F8" t="n">
-        <v>18.8761766268216</v>
+        <v>93.1854835613485</v>
       </c>
       <c r="G8" t="n">
-        <v>16.2923383545674</v>
+        <v>80.4299227502567</v>
       </c>
       <c r="H8" t="n">
-        <v>14.8530931640819</v>
+        <v>73.3248420079964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.68706987853135</v>
+        <v>6.88938783133714</v>
       </c>
       <c r="B9" t="n">
-        <v>9.33220510955249</v>
+        <v>38.1093759893708</v>
       </c>
       <c r="C9" t="n">
-        <v>48.1951030778954</v>
+        <v>196.811501942018</v>
       </c>
       <c r="D9" t="n">
-        <v>73.1479680157745</v>
+        <v>298.710045830239</v>
       </c>
       <c r="E9" t="n">
-        <v>32.2210475703674</v>
+        <v>131.579192936257</v>
       </c>
       <c r="F9" t="n">
-        <v>24.1305116090422</v>
+        <v>98.540348066671</v>
       </c>
       <c r="G9" t="n">
-        <v>20.6569000349474</v>
+        <v>84.3553652073993</v>
       </c>
       <c r="H9" t="n">
-        <v>18.7166942720271</v>
+        <v>76.4322612841703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.67639916844366</v>
+        <v>9.04309786837703</v>
       </c>
       <c r="B10" t="n">
-        <v>7.80759907483312</v>
+        <v>42.1169873379944</v>
       </c>
       <c r="C10" t="n">
-        <v>38.8302963827376</v>
+        <v>209.464533899275</v>
       </c>
       <c r="D10" t="n">
-        <v>57.561894103885</v>
+        <v>310.509484655642</v>
       </c>
       <c r="E10" t="n">
-        <v>24.9583829779611</v>
+        <v>134.634461860104</v>
       </c>
       <c r="F10" t="n">
-        <v>18.495397708444</v>
+        <v>99.7708032432952</v>
       </c>
       <c r="G10" t="n">
-        <v>15.7213719821677</v>
+        <v>84.8067143769176</v>
       </c>
       <c r="H10" t="n">
-        <v>14.1762934746633</v>
+        <v>76.4720072136706</v>
       </c>
     </row>
     <row r="11">
@@ -3455,262 +3659,262 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H2" t="e">
-        <v>#NUM!</v>
+      <c r="A2" t="n">
+        <v>2.44609908352767</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.92813665996618</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.7539175958321</v>
+      </c>
+      <c r="D2" t="n">
+        <v>95.0637685246585</v>
+      </c>
+      <c r="E2" t="n">
+        <v>42.9683739158623</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.5682421407606</v>
+      </c>
+      <c r="G2" t="n">
+        <v>28.0642380064034</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25.5334392488257</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H3" t="e">
-        <v>#NUM!</v>
+      <c r="A3" t="n">
+        <v>3.21017604244291</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.6483850396161</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64.9212428372403</v>
+      </c>
+      <c r="D3" t="n">
+        <v>102.124672173824</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45.4850299478735</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34.1853556113721</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29.3031802113037</v>
+      </c>
+      <c r="H3" t="n">
+        <v>26.5673175803869</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H4" t="e">
-        <v>#NUM!</v>
+      <c r="A4" t="n">
+        <v>3.89252479077171</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.9342828285899</v>
+      </c>
+      <c r="C4" t="n">
+        <v>69.1627524713667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>106.669562191172</v>
+      </c>
+      <c r="E4" t="n">
+        <v>47.0185519336025</v>
+      </c>
+      <c r="F4" t="n">
+        <v>35.1305468081816</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30.0057287059408</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27.1411992832751</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H5" t="e">
-        <v>#NUM!</v>
+      <c r="A5" t="n">
+        <v>2.39256774200735</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.98546811361828</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49.3647709068112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.223911677169</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36.8598361294786</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27.9470636188805</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24.0666911404506</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21.8790097502583</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H6" t="e">
-        <v>#NUM!</v>
+      <c r="A6" t="n">
+        <v>3.1614906988836</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9.90623750821426</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57.085714505383</v>
+      </c>
+      <c r="D6" t="n">
+        <v>91.1055667738244</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40.7529543377468</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30.6710927463959</v>
+      </c>
+      <c r="G6" t="n">
+        <v>26.3042854850378</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.8541035569965</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G7" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H7" t="e">
-        <v>#NUM!</v>
+      <c r="A7" t="n">
+        <v>3.63321936918168</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.7097291620028</v>
+      </c>
+      <c r="C7" t="n">
+        <v>59.062210523941</v>
+      </c>
+      <c r="D7" t="n">
+        <v>92.5191479382706</v>
+      </c>
+      <c r="E7" t="n">
+        <v>41.0355322439669</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30.753915520149</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26.3141052650112</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.8290642796991</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G8" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H8" t="e">
-        <v>#NUM!</v>
+      <c r="A8" t="n">
+        <v>4.4825112590002</v>
+      </c>
+      <c r="B8" t="n">
+        <v>32.958156482525</v>
+      </c>
+      <c r="C8" t="n">
+        <v>177.094756479812</v>
+      </c>
+      <c r="D8" t="n">
+        <v>275.001367299657</v>
+      </c>
+      <c r="E8" t="n">
+        <v>123.043177210741</v>
+      </c>
+      <c r="F8" t="n">
+        <v>93.1854835613485</v>
+      </c>
+      <c r="G8" t="n">
+        <v>80.4299227502567</v>
+      </c>
+      <c r="H8" t="n">
+        <v>73.3248420079964</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" t="e">
-        <v>#NUM!</v>
+      <c r="A9" t="n">
+        <v>6.88938783133714</v>
+      </c>
+      <c r="B9" t="n">
+        <v>38.1093759893708</v>
+      </c>
+      <c r="C9" t="n">
+        <v>196.811501942018</v>
+      </c>
+      <c r="D9" t="n">
+        <v>298.710045830239</v>
+      </c>
+      <c r="E9" t="n">
+        <v>131.579192936257</v>
+      </c>
+      <c r="F9" t="n">
+        <v>98.540348066671</v>
+      </c>
+      <c r="G9" t="n">
+        <v>84.3553652073993</v>
+      </c>
+      <c r="H9" t="n">
+        <v>76.4322612841703</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
+      <c r="A10" t="n">
+        <v>9.04309786837703</v>
+      </c>
+      <c r="B10" t="n">
+        <v>42.1169873379944</v>
+      </c>
+      <c r="C10" t="n">
+        <v>209.464533899275</v>
+      </c>
+      <c r="D10" t="n">
+        <v>310.509484655642</v>
+      </c>
+      <c r="E10" t="n">
+        <v>134.634461860104</v>
+      </c>
+      <c r="F10" t="n">
+        <v>99.7708032432952</v>
+      </c>
+      <c r="G10" t="n">
+        <v>84.8067143769176</v>
+      </c>
+      <c r="H10" t="n">
+        <v>76.4720072136706</v>
       </c>
     </row>
     <row r="11">

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
@@ -13,8 +13,10 @@
     <sheet name="elast_nmax" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="elast_pmean" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="elast_pmax" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="elast_nviol" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="elast_pviol" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nmedian" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="elast_pmedian" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="elast_nviol" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="elast_pviol" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1021,6 +1023,606 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.80011243245718</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11.3649929718355</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.2571181697159</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.821936901362</v>
+      </c>
+      <c r="E2" t="n">
+        <v>49.1870009741222</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37.2817030739827</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.1258538864412</v>
+      </c>
+      <c r="H2" t="n">
+        <v>29.2287835621596</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.0725643338111</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.7776311428512</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82.3618189750216</v>
+      </c>
+      <c r="D3" t="n">
+        <v>129.559654049616</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.7042218990187</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43.3689798194296</v>
+      </c>
+      <c r="G3" t="n">
+        <v>37.1752467833443</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.7044163910025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.43762495608551</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18.0684216230426</v>
+      </c>
+      <c r="C4" t="n">
+        <v>96.6162398660815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>149.011015883713</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65.6821125453827</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49.0752784665571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.916213256694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37.9146365132251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.1361454744004</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.8048579437085</v>
+      </c>
+      <c r="C5" t="n">
+        <v>85.3392237118912</v>
+      </c>
+      <c r="D5" t="n">
+        <v>140.415633295614</v>
+      </c>
+      <c r="E5" t="n">
+        <v>63.7213491251755</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48.3134160343692</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41.6052318589109</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37.8232831505822</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.17106199074538</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.2030425293081</v>
+      </c>
+      <c r="C6" t="n">
+        <v>93.371702342053</v>
+      </c>
+      <c r="D6" t="n">
+        <v>149.015947969039</v>
+      </c>
+      <c r="E6" t="n">
+        <v>66.6571795580233</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50.1668791787116</v>
+      </c>
+      <c r="G6" t="n">
+        <v>43.0243526933123</v>
+      </c>
+      <c r="H6" t="n">
+        <v>39.0167360829014</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.42611698018009</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.8901457637533</v>
+      </c>
+      <c r="C7" t="n">
+        <v>120.72017676092</v>
+      </c>
+      <c r="D7" t="n">
+        <v>189.104467878837</v>
+      </c>
+      <c r="E7" t="n">
+        <v>83.8745563707283</v>
+      </c>
+      <c r="F7" t="n">
+        <v>62.8594508188592</v>
+      </c>
+      <c r="G7" t="n">
+        <v>53.7847027857168</v>
+      </c>
+      <c r="H7" t="n">
+        <v>48.7054044603789</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.908002738440475</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6.67618988797749</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35.8733117567193</v>
+      </c>
+      <c r="D8" t="n">
+        <v>55.7058265233803</v>
+      </c>
+      <c r="E8" t="n">
+        <v>24.9243192929959</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.8761766268216</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16.2923383545674</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.8530931640819</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.68706987853135</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.33220510955249</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.1951030778954</v>
+      </c>
+      <c r="D9" t="n">
+        <v>73.1479680157745</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.2210475703674</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24.1305116090422</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20.6569000349474</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18.7166942720271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.67639916844366</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.80759907483312</v>
+      </c>
+      <c r="C10" t="n">
+        <v>38.8302963827376</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57.561894103885</v>
+      </c>
+      <c r="E10" t="n">
+        <v>24.9583829779611</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.495397708444</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.7213719821677</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.1762934746633</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
+++ b/San_Salvador/Resultados_x_Subcuenca/Resultados_Subcuenca_10.xlsx
@@ -504,7 +504,7 @@
         <v>32.5291804225073</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00545398167644467</v>
+        <v>1.43696014098895</v>
       </c>
       <c r="G2" t="n">
         <v>0.00545398167644467</v>
@@ -557,7 +557,7 @@
         <v>32.5291804225073</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00544814359634375</v>
+        <v>1.42945557072134</v>
       </c>
       <c r="G3" t="n">
         <v>0.00544814359634375</v>
@@ -610,7 +610,7 @@
         <v>32.5494413332251</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00543404060342086</v>
+        <v>1.40675034845015</v>
       </c>
       <c r="G4" t="n">
         <v>0.00543404060342086</v>
@@ -663,7 +663,7 @@
         <v>32.2124520454627</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00539084929368777</v>
+        <v>1.38762050998966</v>
       </c>
       <c r="G5" t="n">
         <v>0.00539084929368777</v>
@@ -716,7 +716,7 @@
         <v>32.2124520454627</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00537313138556066</v>
+        <v>1.38212630400284</v>
       </c>
       <c r="G6" t="n">
         <v>0.00537313138556066</v>
@@ -769,7 +769,7 @@
         <v>32.2326621322508</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00537303988924342</v>
+        <v>1.35478333935519</v>
       </c>
       <c r="G7" t="n">
         <v>0.00537303988924342</v>
@@ -822,7 +822,7 @@
         <v>20.7937799475635</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00510042288601572</v>
+        <v>1.37824376329178</v>
       </c>
       <c r="G8" t="n">
         <v>0.00510042288601572</v>
@@ -875,7 +875,7 @@
         <v>20.8280604066481</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0050991551276771</v>
+        <v>1.33601299435391</v>
       </c>
       <c r="G9" t="n">
         <v>0.0050991551276771</v>
@@ -928,7 +928,7 @@
         <v>20.7681856250264</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00509715231022753</v>
+        <v>1.33545763068125</v>
       </c>
       <c r="G10" t="n">
         <v>0.00509715231022753</v>
@@ -981,7 +981,7 @@
         <v>18.3452628994983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0050618754419589</v>
+        <v>1.30363738687341</v>
       </c>
       <c r="G11" t="n">
         <v>0.0050618754419589</v>
@@ -1695,7 +1695,7 @@
         <v>14.183917523009</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000392106234485768</v>
+        <v>0.133322754115538</v>
       </c>
       <c r="F2" t="n">
         <v>0.000392106234485768</v>
@@ -1745,7 +1745,7 @@
         <v>14.183917523009</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000386268154384848</v>
+        <v>0.125818183847923</v>
       </c>
       <c r="F3" t="n">
         <v>0.000386268154384848</v>
@@ -1795,7 +1795,7 @@
         <v>14.2041784337268</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000372165161461955</v>
+        <v>0.103112961576737</v>
       </c>
       <c r="F4" t="n">
         <v>0.000372165161461955</v>
@@ -1845,7 +1845,7 @@
         <v>13.8671891459644</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00032897385172887</v>
+        <v>0.0839831231162425</v>
       </c>
       <c r="F5" t="n">
         <v>0.00032897385172887</v>
@@ -1895,7 +1895,7 @@
         <v>13.8671891459644</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000311255943601763</v>
+        <v>0.0784889171294267</v>
       </c>
       <c r="F6" t="n">
         <v>0.000311255943601763</v>
@@ -1945,7 +1945,7 @@
         <v>13.8873992327525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000311164447284515</v>
+        <v>0.0511459524817772</v>
       </c>
       <c r="F7" t="n">
         <v>0.000311164447284515</v>
@@ -1995,7 +1995,7 @@
         <v>2.44851704806524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000385474440568138</v>
+        <v>0.0746063764183638</v>
       </c>
       <c r="F8" t="n">
         <v>0.0000385474440568138</v>
@@ -2045,7 +2045,7 @@
         <v>2.48279750714984</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0000372796857182013</v>
+        <v>0.0323756074804944</v>
       </c>
       <c r="F9" t="n">
         <v>0.0000372796857182013</v>
@@ -2095,7 +2095,7 @@
         <v>2.42292272552809</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000352768682686288</v>
+        <v>0.0318202438078354</v>
       </c>
       <c r="F10" t="n">
         <v>0.0000352768682686288</v>
@@ -2259,7 +2259,7 @@
         <v>0.773165127189151</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0774626398815587</v>
+        <v>0.102269814795119</v>
       </c>
       <c r="F2" t="n">
         <v>0.0774626398815587</v>
@@ -2309,7 +2309,7 @@
         <v>0.773165127189151</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0763092965865959</v>
+        <v>0.0965131754541653</v>
       </c>
       <c r="F3" t="n">
         <v>0.0763092965865959</v>
@@ -2359,7 +2359,7 @@
         <v>0.774269549122423</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0735231764845502</v>
+        <v>0.0790963519572253</v>
       </c>
       <c r="F4" t="n">
         <v>0.0735231764845502</v>
@@ -2409,7 +2409,7 @@
         <v>0.755900268201863</v>
       </c>
       <c r="E5" t="n">
-        <v>0.064990507076081</v>
+        <v>0.0644221498722616</v>
       </c>
       <c r="F5" t="n">
         <v>0.064990507076081</v>
@@ -2459,7 +2459,7 @@
         <v>0.755900268201863</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0614902415459892</v>
+        <v>0.0602076297594311</v>
       </c>
       <c r="F6" t="n">
         <v>0.0614902415459892</v>
@@ -2509,7 +2509,7 @@
         <v>0.757001919723502</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0614721659693975</v>
+        <v>0.0392332660882359</v>
       </c>
       <c r="F7" t="n">
         <v>0.0614721659693975</v>
@@ -2559,7 +2559,7 @@
         <v>0.133468626831846</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00761524942658333</v>
+        <v>0.0572293930579088</v>
       </c>
       <c r="F8" t="n">
         <v>0.00761524942658333</v>
@@ -2609,7 +2609,7 @@
         <v>0.135337254132114</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00736479712819136</v>
+        <v>0.0248348258545596</v>
       </c>
       <c r="F9" t="n">
         <v>0.00736479712819136</v>
@@ -2659,7 +2659,7 @@
         <v>0.132073480701896</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00696913005330232</v>
+        <v>0.024408815003497</v>
       </c>
       <c r="F10" t="n">
         <v>0.00696913005330232</v>
@@ -3987,236 +3987,236 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.44609908352767</v>
+        <v>1.85275873239341</v>
       </c>
       <c r="B2" t="n">
-        <v>9.92813665996618</v>
+        <v>7.51990874654994</v>
       </c>
       <c r="C2" t="n">
-        <v>58.7539175958321</v>
+        <v>44.5022176824545</v>
       </c>
       <c r="D2" t="n">
-        <v>95.0637685246585</v>
+        <v>72.0045350796988</v>
       </c>
       <c r="E2" t="n">
-        <v>42.9683739158623</v>
+        <v>32.545709421774</v>
       </c>
       <c r="F2" t="n">
-        <v>32.5682421407606</v>
+        <v>24.6682955041934</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0642380064034</v>
+        <v>21.25680941728</v>
       </c>
       <c r="H2" t="n">
-        <v>25.5334392488257</v>
+        <v>19.3398962678461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.21017604244291</v>
+        <v>2.53816408552733</v>
       </c>
       <c r="B3" t="n">
-        <v>11.6483850396161</v>
+        <v>9.20993496027974</v>
       </c>
       <c r="C3" t="n">
-        <v>64.9212428372403</v>
+        <v>51.33075718548</v>
       </c>
       <c r="D3" t="n">
-        <v>102.124672173824</v>
+        <v>80.7460935882501</v>
       </c>
       <c r="E3" t="n">
-        <v>45.4850299478735</v>
+        <v>35.9632829839988</v>
       </c>
       <c r="F3" t="n">
-        <v>34.1853556113721</v>
+        <v>27.0290603121365</v>
       </c>
       <c r="G3" t="n">
-        <v>29.3031802113037</v>
+        <v>23.1689099353775</v>
       </c>
       <c r="H3" t="n">
-        <v>26.5673175803869</v>
+        <v>21.0057674220327</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.89252479077171</v>
+        <v>3.61825520495768</v>
       </c>
       <c r="B4" t="n">
-        <v>12.9342828285899</v>
+        <v>12.0229256542929</v>
       </c>
       <c r="C4" t="n">
-        <v>69.1627524713667</v>
+        <v>64.289504260064</v>
       </c>
       <c r="D4" t="n">
-        <v>106.669562191172</v>
+        <v>99.1535621105821</v>
       </c>
       <c r="E4" t="n">
-        <v>47.0185519336025</v>
+        <v>43.7055971144123</v>
       </c>
       <c r="F4" t="n">
-        <v>35.1305468081816</v>
+        <v>32.6552278210442</v>
       </c>
       <c r="G4" t="n">
-        <v>30.0057287059408</v>
+        <v>27.8915074160117</v>
       </c>
       <c r="H4" t="n">
-        <v>27.1411992832751</v>
+        <v>25.2288144209955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.39256774200735</v>
+        <v>2.41367590301241</v>
       </c>
       <c r="B5" t="n">
-        <v>7.98546811361828</v>
+        <v>8.05591901190784</v>
       </c>
       <c r="C5" t="n">
-        <v>49.3647709068112</v>
+        <v>49.8002860707014</v>
       </c>
       <c r="D5" t="n">
-        <v>81.223911677169</v>
+        <v>81.9405005431979</v>
       </c>
       <c r="E5" t="n">
-        <v>36.8598361294786</v>
+        <v>37.185027906489</v>
       </c>
       <c r="F5" t="n">
-        <v>27.9470636188805</v>
+        <v>28.1936234583904</v>
       </c>
       <c r="G5" t="n">
-        <v>24.0666911404506</v>
+        <v>24.2790168282597</v>
       </c>
       <c r="H5" t="n">
-        <v>21.8790097502583</v>
+        <v>22.0720348639599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.1614906988836</v>
+        <v>3.22884038944082</v>
       </c>
       <c r="B6" t="n">
-        <v>9.90623750821426</v>
+        <v>10.1172715090418</v>
       </c>
       <c r="C6" t="n">
-        <v>57.085714505383</v>
+        <v>58.3018196827708</v>
       </c>
       <c r="D6" t="n">
-        <v>91.1055667738244</v>
+        <v>93.0464017515849</v>
       </c>
       <c r="E6" t="n">
-        <v>40.7529543377468</v>
+        <v>41.6211203788202</v>
       </c>
       <c r="F6" t="n">
-        <v>30.6710927463959</v>
+        <v>31.3244834415674</v>
       </c>
       <c r="G6" t="n">
-        <v>26.3042854850378</v>
+        <v>26.8646494577586</v>
       </c>
       <c r="H6" t="n">
-        <v>23.8541035569965</v>
+        <v>24.3622709520963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.63321936918168</v>
+        <v>5.69266559565212</v>
       </c>
       <c r="B7" t="n">
-        <v>10.7097291620028</v>
+        <v>16.7804089278037</v>
       </c>
       <c r="C7" t="n">
-        <v>59.062210523941</v>
+        <v>92.5409064767068</v>
       </c>
       <c r="D7" t="n">
-        <v>92.5191479382706</v>
+        <v>144.962502092426</v>
       </c>
       <c r="E7" t="n">
-        <v>41.0355322439669</v>
+        <v>64.2960247834192</v>
       </c>
       <c r="F7" t="n">
-        <v>30.753915520149</v>
+        <v>48.1863986243627</v>
       </c>
       <c r="G7" t="n">
-        <v>26.3141052650112</v>
+        <v>41.229935905642</v>
       </c>
       <c r="H7" t="n">
-        <v>23.8290642796991</v>
+        <v>37.3362796511181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.4825112590002</v>
+        <v>0.596466945931331</v>
       </c>
       <c r="B8" t="n">
-        <v>32.958156482525</v>
+        <v>4.38558874809012</v>
       </c>
       <c r="C8" t="n">
-        <v>177.094756479812</v>
+        <v>23.5651764010353</v>
       </c>
       <c r="D8" t="n">
-        <v>275.001367299657</v>
+        <v>36.5931541947209</v>
       </c>
       <c r="E8" t="n">
-        <v>123.043177210741</v>
+        <v>16.3727838901063</v>
       </c>
       <c r="F8" t="n">
-        <v>93.1854835613485</v>
+        <v>12.3997593253941</v>
       </c>
       <c r="G8" t="n">
-        <v>80.4299227502567</v>
+        <v>10.7024361150269</v>
       </c>
       <c r="H8" t="n">
-        <v>73.3248420079964</v>
+        <v>9.75699603332664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6.88938783133714</v>
+        <v>2.04305615076067</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1093759893708</v>
+        <v>11.3013807500548</v>
       </c>
       <c r="C9" t="n">
-        <v>196.811501942018</v>
+        <v>58.3646848496616</v>
       </c>
       <c r="D9" t="n">
-        <v>298.710045830239</v>
+        <v>88.5828191659557</v>
       </c>
       <c r="E9" t="n">
-        <v>131.579192936257</v>
+        <v>39.0199660727143</v>
       </c>
       <c r="F9" t="n">
-        <v>98.540348066671</v>
+        <v>29.2222573535442</v>
       </c>
       <c r="G9" t="n">
-        <v>84.3553652073993</v>
+        <v>25.0156838250156</v>
       </c>
       <c r="H9" t="n">
-        <v>76.4322612841703</v>
+        <v>22.6660779384318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.04309786837703</v>
+        <v>2.58195758870029</v>
       </c>
       <c r="B10" t="n">
-        <v>42.1169873379944</v>
+        <v>12.0251131474313</v>
       </c>
       <c r="C10" t="n">
-        <v>209.464533899275</v>
+        <v>59.8056717660918</v>
       </c>
       <c r="D10" t="n">
-        <v>310.509484655642</v>
+        <v>88.6557164302742</v>
       </c>
       <c r="E10" t="n">
-        <v>134.634461860104</v>
+        <v>38.4404189316446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.7708032432952</v>
+        <v>28.4862539711716</v>
       </c>
       <c r="G10" t="n">
-        <v>84.8067143769176</v>
+        <v>24.2137531789776</v>
       </c>
       <c r="H10" t="n">
-        <v>76.4720072136706</v>
+        <v>21.8340531333778</v>
       </c>
     </row>
     <row r="11">
